--- a/BackTest/2019-11-15 BackTest ITC.xlsx
+++ b/BackTest/2019-11-15 BackTest ITC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>12</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>60</v>
+      </c>
       <c r="L12" t="n">
         <v>154.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>13</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>60</v>
+      </c>
       <c r="L13" t="n">
         <v>155.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>13</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>55.55555555555556</v>
+      </c>
       <c r="L14" t="n">
         <v>156.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>75</v>
+      </c>
       <c r="L15" t="n">
         <v>156.7</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>15</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>25</v>
+      </c>
       <c r="L16" t="n">
         <v>157.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>16</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L17" t="n">
         <v>157.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>17</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L18" t="n">
         <v>157.4</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>19</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
       <c r="L19" t="n">
         <v>157.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>24</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>157.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>24</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>157.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>26</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L22" t="n">
         <v>157</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>28</v>
       </c>
       <c r="K23" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>156.5</v>
@@ -1466,7 +1488,7 @@
         <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>156</v>
@@ -1515,7 +1537,7 @@
         <v>29</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L25" t="n">
         <v>155.6</v>
@@ -1564,7 +1586,7 @@
         <v>29</v>
       </c>
       <c r="K26" t="n">
-        <v>8.333333333333332</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L26" t="n">
         <v>155.4</v>
@@ -1613,7 +1635,7 @@
         <v>29</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L27" t="n">
         <v>155.3</v>
@@ -1662,7 +1684,7 @@
         <v>30</v>
       </c>
       <c r="K28" t="n">
-        <v>4.347826086956522</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L28" t="n">
         <v>155.2</v>
@@ -1711,7 +1733,7 @@
         <v>30</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>154.9</v>
@@ -1760,7 +1782,7 @@
         <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>155.1</v>
@@ -1809,7 +1831,7 @@
         <v>31</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L31" t="n">
         <v>155.2</v>
@@ -1860,7 +1882,7 @@
         <v>31</v>
       </c>
       <c r="K32" t="n">
-        <v>-15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>155.1</v>
@@ -1911,7 +1933,7 @@
         <v>32</v>
       </c>
       <c r="K33" t="n">
-        <v>-15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L33" t="n">
         <v>155.3</v>
@@ -1962,7 +1984,7 @@
         <v>32</v>
       </c>
       <c r="K34" t="n">
-        <v>-15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>155.5</v>
@@ -2013,7 +2035,7 @@
         <v>32</v>
       </c>
       <c r="K35" t="n">
-        <v>-15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>155.6</v>
@@ -2064,7 +2086,7 @@
         <v>32</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>155.7</v>
@@ -2166,7 +2188,7 @@
         <v>33</v>
       </c>
       <c r="K38" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>155.7</v>
@@ -2217,7 +2239,7 @@
         <v>34</v>
       </c>
       <c r="K39" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>155.7</v>
@@ -2268,7 +2290,7 @@
         <v>35</v>
       </c>
       <c r="K40" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>155.6</v>
@@ -2319,7 +2341,7 @@
         <v>36</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L41" t="n">
         <v>155.5</v>
@@ -2370,7 +2392,7 @@
         <v>37</v>
       </c>
       <c r="K42" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L42" t="n">
         <v>155.5</v>
@@ -2421,7 +2443,7 @@
         <v>37</v>
       </c>
       <c r="K43" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L43" t="n">
         <v>155.4</v>
@@ -2472,7 +2494,7 @@
         <v>38</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>155.2</v>
@@ -2523,7 +2545,7 @@
         <v>39</v>
       </c>
       <c r="K45" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L45" t="n">
         <v>154.9</v>
@@ -2574,7 +2596,7 @@
         <v>39</v>
       </c>
       <c r="K46" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L46" t="n">
         <v>154.6</v>
@@ -2625,7 +2647,7 @@
         <v>40</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>154.4</v>
@@ -2676,7 +2698,7 @@
         <v>41</v>
       </c>
       <c r="K48" t="n">
-        <v>-27.27272727272727</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L48" t="n">
         <v>154.2</v>
@@ -2727,7 +2749,7 @@
         <v>42</v>
       </c>
       <c r="K49" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L49" t="n">
         <v>154</v>
@@ -2778,7 +2800,7 @@
         <v>43</v>
       </c>
       <c r="K50" t="n">
-        <v>-23.07692307692308</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L50" t="n">
         <v>153.8</v>
@@ -2829,7 +2851,7 @@
         <v>44</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L51" t="n">
         <v>153.8</v>
@@ -2880,7 +2902,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L52" t="n">
         <v>153.6</v>
@@ -2931,7 +2953,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>153.5</v>
@@ -2982,7 +3004,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>153.4</v>
@@ -3033,7 +3055,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>153.4</v>
@@ -3084,7 +3106,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>153.4</v>
@@ -3135,7 +3157,7 @@
         <v>47</v>
       </c>
       <c r="K57" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>153.3</v>
@@ -3186,7 +3208,7 @@
         <v>47</v>
       </c>
       <c r="K58" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L58" t="n">
         <v>153.3</v>
@@ -3237,7 +3259,7 @@
         <v>47</v>
       </c>
       <c r="K59" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>153.2</v>
@@ -3288,7 +3310,7 @@
         <v>48</v>
       </c>
       <c r="K60" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>153.3</v>
@@ -3339,7 +3361,7 @@
         <v>49</v>
       </c>
       <c r="K61" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L61" t="n">
         <v>153.4</v>
@@ -3390,7 +3412,7 @@
         <v>50</v>
       </c>
       <c r="K62" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L62" t="n">
         <v>153.7</v>
@@ -3441,7 +3463,7 @@
         <v>50</v>
       </c>
       <c r="K63" t="n">
-        <v>7.692307692307693</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
         <v>153.9</v>
@@ -3492,7 +3514,7 @@
         <v>50</v>
       </c>
       <c r="K64" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
         <v>154.2</v>
@@ -3543,7 +3565,7 @@
         <v>51</v>
       </c>
       <c r="K65" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
         <v>154.6</v>
@@ -3594,7 +3616,7 @@
         <v>52</v>
       </c>
       <c r="K66" t="n">
-        <v>23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L66" t="n">
         <v>154.9</v>
@@ -3645,7 +3667,7 @@
         <v>53</v>
       </c>
       <c r="K67" t="n">
-        <v>23.07692307692308</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L67" t="n">
         <v>155.3</v>
@@ -3696,7 +3718,7 @@
         <v>55</v>
       </c>
       <c r="K68" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L68" t="n">
         <v>155.5</v>
@@ -3747,7 +3769,7 @@
         <v>57</v>
       </c>
       <c r="K69" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>155.9</v>
@@ -3798,7 +3820,7 @@
         <v>57</v>
       </c>
       <c r="K70" t="n">
-        <v>28.57142857142857</v>
+        <v>25</v>
       </c>
       <c r="L70" t="n">
         <v>156.2</v>
@@ -3849,7 +3871,7 @@
         <v>57</v>
       </c>
       <c r="K71" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L71" t="n">
         <v>156.4</v>
@@ -3900,7 +3922,7 @@
         <v>57</v>
       </c>
       <c r="K72" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L72" t="n">
         <v>156.5</v>
@@ -3951,7 +3973,7 @@
         <v>57</v>
       </c>
       <c r="K73" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L73" t="n">
         <v>156.6</v>
@@ -4002,7 +4024,7 @@
         <v>57</v>
       </c>
       <c r="K74" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>156.7</v>
@@ -4053,7 +4075,7 @@
         <v>57</v>
       </c>
       <c r="K75" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L75" t="n">
         <v>156.7</v>
@@ -4104,7 +4126,7 @@
         <v>57</v>
       </c>
       <c r="K76" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>156.8</v>
@@ -4155,7 +4177,7 @@
         <v>58</v>
       </c>
       <c r="K77" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>156.7</v>
@@ -4206,7 +4228,7 @@
         <v>59</v>
       </c>
       <c r="K78" t="n">
-        <v>16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>156.7</v>
@@ -4257,7 +4279,7 @@
         <v>59</v>
       </c>
       <c r="K79" t="n">
-        <v>16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L79" t="n">
         <v>156.5</v>
@@ -4308,7 +4330,7 @@
         <v>60</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L80" t="n">
         <v>156.2</v>
@@ -4359,7 +4381,7 @@
         <v>63</v>
       </c>
       <c r="K81" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>156.2</v>
@@ -4410,7 +4432,7 @@
         <v>65</v>
       </c>
       <c r="K82" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L82" t="n">
         <v>156.4</v>
@@ -4461,7 +4483,7 @@
         <v>66</v>
       </c>
       <c r="K83" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L83" t="n">
         <v>156.5</v>
@@ -4512,7 +4534,7 @@
         <v>67</v>
       </c>
       <c r="K84" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L84" t="n">
         <v>156.7</v>
@@ -4563,7 +4585,7 @@
         <v>68</v>
       </c>
       <c r="K85" t="n">
-        <v>5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L85" t="n">
         <v>156.8</v>
@@ -4614,7 +4636,7 @@
         <v>68</v>
       </c>
       <c r="K86" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>156.9</v>
@@ -4665,7 +4687,7 @@
         <v>69</v>
       </c>
       <c r="K87" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="L87" t="n">
         <v>157.2</v>
@@ -4716,7 +4738,7 @@
         <v>70</v>
       </c>
       <c r="K88" t="n">
-        <v>33.33333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L88" t="n">
         <v>157.7</v>
@@ -4767,7 +4789,7 @@
         <v>71</v>
       </c>
       <c r="K89" t="n">
-        <v>14.28571428571428</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L89" t="n">
         <v>158.1</v>
@@ -4818,7 +4840,7 @@
         <v>72</v>
       </c>
       <c r="K90" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L90" t="n">
         <v>158.5</v>
@@ -4869,7 +4891,7 @@
         <v>72</v>
       </c>
       <c r="K91" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L91" t="n">
         <v>158.6</v>
@@ -4920,7 +4942,7 @@
         <v>74</v>
       </c>
       <c r="K92" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L92" t="n">
         <v>158.7</v>
@@ -4971,7 +4993,7 @@
         <v>75</v>
       </c>
       <c r="K93" t="n">
-        <v>22.22222222222222</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
         <v>159</v>
@@ -5022,7 +5044,7 @@
         <v>75</v>
       </c>
       <c r="K94" t="n">
-        <v>22.22222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L94" t="n">
         <v>159.2</v>
@@ -5073,7 +5095,7 @@
         <v>76</v>
       </c>
       <c r="K95" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L95" t="n">
         <v>159.4</v>
@@ -5124,7 +5146,7 @@
         <v>77</v>
       </c>
       <c r="K96" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L96" t="n">
         <v>159.7</v>
@@ -5175,7 +5197,7 @@
         <v>77</v>
       </c>
       <c r="K97" t="n">
-        <v>26.31578947368421</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>159.9</v>
@@ -5226,7 +5248,7 @@
         <v>79</v>
       </c>
       <c r="K98" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>159.8</v>
@@ -5277,7 +5299,7 @@
         <v>81</v>
       </c>
       <c r="K99" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>160</v>
@@ -5328,7 +5350,7 @@
         <v>84</v>
       </c>
       <c r="K100" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>160</v>
@@ -5379,7 +5401,7 @@
         <v>85</v>
       </c>
       <c r="K101" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L101" t="n">
         <v>160.1</v>
@@ -5430,7 +5452,7 @@
         <v>85</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L102" t="n">
         <v>160</v>
@@ -5481,7 +5503,7 @@
         <v>85</v>
       </c>
       <c r="K103" t="n">
-        <v>5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L103" t="n">
         <v>159.8</v>
@@ -5532,7 +5554,7 @@
         <v>87</v>
       </c>
       <c r="K104" t="n">
-        <v>-10</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L104" t="n">
         <v>159.4</v>
@@ -5583,7 +5605,7 @@
         <v>89</v>
       </c>
       <c r="K105" t="n">
-        <v>4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L105" t="n">
         <v>159.3</v>
@@ -5634,7 +5656,7 @@
         <v>90</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L106" t="n">
         <v>159</v>
@@ -5685,7 +5707,7 @@
         <v>91</v>
       </c>
       <c r="K107" t="n">
-        <v>-9.090909090909092</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L107" t="n">
         <v>158.6</v>
@@ -5736,7 +5758,7 @@
         <v>93</v>
       </c>
       <c r="K108" t="n">
-        <v>-4.347826086956522</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L108" t="n">
         <v>158.6</v>
@@ -5787,7 +5809,7 @@
         <v>93</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L109" t="n">
         <v>158.4</v>
@@ -5838,7 +5860,7 @@
         <v>93</v>
       </c>
       <c r="K110" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>158.5</v>
@@ -5889,7 +5911,7 @@
         <v>94</v>
       </c>
       <c r="K111" t="n">
-        <v>9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L111" t="n">
         <v>158.6</v>
@@ -5940,7 +5962,7 @@
         <v>95</v>
       </c>
       <c r="K112" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>158.6</v>
@@ -5991,7 +6013,7 @@
         <v>95</v>
       </c>
       <c r="K113" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L113" t="n">
         <v>158.6</v>
@@ -6042,7 +6064,7 @@
         <v>96</v>
       </c>
       <c r="K114" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L114" t="n">
         <v>158.9</v>
@@ -6093,7 +6115,7 @@
         <v>97</v>
       </c>
       <c r="K115" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L115" t="n">
         <v>158.9</v>
@@ -6144,7 +6166,7 @@
         <v>98</v>
       </c>
       <c r="K116" t="n">
-        <v>-4.761904761904762</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L116" t="n">
         <v>159.1</v>
@@ -6195,7 +6217,7 @@
         <v>100</v>
       </c>
       <c r="K117" t="n">
-        <v>4.347826086956522</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L117" t="n">
         <v>159.6</v>
@@ -6246,7 +6268,7 @@
         <v>100</v>
       </c>
       <c r="K118" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L118" t="n">
         <v>159.9</v>
@@ -6297,7 +6319,7 @@
         <v>101</v>
       </c>
       <c r="K119" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L119" t="n">
         <v>160.3</v>
@@ -6348,7 +6370,7 @@
         <v>101</v>
       </c>
       <c r="K120" t="n">
-        <v>29.41176470588236</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L120" t="n">
         <v>160.7</v>
@@ -6399,7 +6421,7 @@
         <v>102</v>
       </c>
       <c r="K121" t="n">
-        <v>29.41176470588236</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L121" t="n">
         <v>161.1</v>
@@ -6450,7 +6472,7 @@
         <v>102</v>
       </c>
       <c r="K122" t="n">
-        <v>29.41176470588236</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L122" t="n">
         <v>161.6</v>
@@ -6501,7 +6523,7 @@
         <v>104</v>
       </c>
       <c r="K123" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L123" t="n">
         <v>161.9</v>
@@ -6552,7 +6574,7 @@
         <v>107</v>
       </c>
       <c r="K124" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L124" t="n">
         <v>162.4</v>
@@ -6603,7 +6625,7 @@
         <v>108</v>
       </c>
       <c r="K125" t="n">
-        <v>36.84210526315789</v>
+        <v>60</v>
       </c>
       <c r="L125" t="n">
         <v>163.1</v>
@@ -6654,7 +6676,7 @@
         <v>110</v>
       </c>
       <c r="K126" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L126" t="n">
         <v>163.5</v>
@@ -6705,7 +6727,7 @@
         <v>111</v>
       </c>
       <c r="K127" t="n">
-        <v>40</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L127" t="n">
         <v>163.8</v>
@@ -6756,7 +6778,7 @@
         <v>113</v>
       </c>
       <c r="K128" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>164.3</v>
@@ -6807,7 +6829,7 @@
         <v>113</v>
       </c>
       <c r="K129" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>164.7</v>
@@ -6858,7 +6880,7 @@
         <v>114</v>
       </c>
       <c r="K130" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>165.2</v>
@@ -6909,7 +6931,7 @@
         <v>114</v>
       </c>
       <c r="K131" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>165.6</v>
@@ -6960,7 +6982,7 @@
         <v>115</v>
       </c>
       <c r="K132" t="n">
-        <v>50</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L132" t="n">
         <v>166.1</v>
@@ -7062,7 +7084,7 @@
         <v>117</v>
       </c>
       <c r="K134" t="n">
-        <v>33.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L134" t="n">
         <v>167</v>
@@ -7113,7 +7135,7 @@
         <v>119</v>
       </c>
       <c r="K135" t="n">
-        <v>45.45454545454545</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L135" t="n">
         <v>167.3</v>
@@ -7164,7 +7186,7 @@
         <v>121</v>
       </c>
       <c r="K136" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L136" t="n">
         <v>167.6</v>
@@ -7215,7 +7237,7 @@
         <v>122</v>
       </c>
       <c r="K137" t="n">
-        <v>27.27272727272727</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L137" t="n">
         <v>167.9</v>
@@ -7266,7 +7288,7 @@
         <v>122</v>
       </c>
       <c r="K138" t="n">
-        <v>27.27272727272727</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L138" t="n">
         <v>168</v>
@@ -7317,7 +7339,7 @@
         <v>124</v>
       </c>
       <c r="K139" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L139" t="n">
         <v>168.3</v>
@@ -7368,7 +7390,7 @@
         <v>125</v>
       </c>
       <c r="K140" t="n">
-        <v>25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L140" t="n">
         <v>168.4</v>
@@ -7419,7 +7441,7 @@
         <v>126</v>
       </c>
       <c r="K141" t="n">
-        <v>16.66666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L141" t="n">
         <v>168.4</v>
@@ -7470,7 +7492,7 @@
         <v>127</v>
       </c>
       <c r="K142" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>168.4</v>
@@ -7521,7 +7543,7 @@
         <v>127</v>
       </c>
       <c r="K143" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L143" t="n">
         <v>168.4</v>
@@ -7572,7 +7594,7 @@
         <v>129</v>
       </c>
       <c r="K144" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L144" t="n">
         <v>168.8</v>
@@ -7623,7 +7645,7 @@
         <v>131</v>
       </c>
       <c r="K145" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L145" t="n">
         <v>168.8</v>
@@ -7674,7 +7696,7 @@
         <v>132</v>
       </c>
       <c r="K146" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L146" t="n">
         <v>169.1</v>
@@ -7776,7 +7798,7 @@
         <v>135</v>
       </c>
       <c r="K148" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L148" t="n">
         <v>169.5</v>
@@ -7827,7 +7849,7 @@
         <v>138</v>
       </c>
       <c r="K149" t="n">
-        <v>20</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L149" t="n">
         <v>169.7</v>
@@ -7878,7 +7900,7 @@
         <v>140</v>
       </c>
       <c r="K150" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L150" t="n">
         <v>169.8</v>
@@ -7929,7 +7951,7 @@
         <v>141</v>
       </c>
       <c r="K151" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L151" t="n">
         <v>170.1</v>
@@ -7980,7 +8002,7 @@
         <v>143</v>
       </c>
       <c r="K152" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L152" t="n">
         <v>170.5</v>
@@ -8082,7 +8104,7 @@
         <v>144</v>
       </c>
       <c r="K154" t="n">
-        <v>18.51851851851852</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L154" t="n">
         <v>171</v>
@@ -8184,7 +8206,7 @@
         <v>146</v>
       </c>
       <c r="K156" t="n">
-        <v>20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L156" t="n">
         <v>171.4</v>
@@ -8235,7 +8257,7 @@
         <v>147</v>
       </c>
       <c r="K157" t="n">
-        <v>12</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L157" t="n">
         <v>171.4</v>
@@ -8286,7 +8308,7 @@
         <v>147</v>
       </c>
       <c r="K158" t="n">
-        <v>12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L158" t="n">
         <v>171.6</v>
@@ -8337,7 +8359,7 @@
         <v>147</v>
       </c>
       <c r="K159" t="n">
-        <v>4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L159" t="n">
         <v>171.5</v>
@@ -8388,7 +8410,7 @@
         <v>147</v>
       </c>
       <c r="K160" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>171.6</v>
@@ -8439,7 +8461,7 @@
         <v>147</v>
       </c>
       <c r="K161" t="n">
-        <v>14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L161" t="n">
         <v>171.6</v>
@@ -8490,7 +8512,7 @@
         <v>147</v>
       </c>
       <c r="K162" t="n">
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="L162" t="n">
         <v>171.4</v>
@@ -8541,7 +8563,7 @@
         <v>147</v>
       </c>
       <c r="K163" t="n">
-        <v>10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>171.2</v>
@@ -8592,7 +8614,7 @@
         <v>148</v>
       </c>
       <c r="K164" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>171</v>
@@ -8643,7 +8665,7 @@
         <v>148</v>
       </c>
       <c r="K165" t="n">
-        <v>5.88235294117647</v>
+        <v>-100</v>
       </c>
       <c r="L165" t="n">
         <v>170.9</v>
@@ -8694,7 +8716,7 @@
         <v>149</v>
       </c>
       <c r="K166" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>170.8</v>
@@ -8745,7 +8767,7 @@
         <v>151</v>
       </c>
       <c r="K167" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L167" t="n">
         <v>170.6</v>
@@ -8796,7 +8818,7 @@
         <v>153</v>
       </c>
       <c r="K168" t="n">
-        <v>-11.11111111111111</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L168" t="n">
         <v>170.2</v>
@@ -8847,7 +8869,7 @@
         <v>153</v>
       </c>
       <c r="K169" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L169" t="n">
         <v>169.8</v>
@@ -8898,7 +8920,7 @@
         <v>153</v>
       </c>
       <c r="K170" t="n">
-        <v>-23.07692307692308</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L170" t="n">
         <v>169.4</v>
@@ -8949,7 +8971,7 @@
         <v>153</v>
       </c>
       <c r="K171" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L171" t="n">
         <v>169</v>
@@ -9000,7 +9022,7 @@
         <v>156</v>
       </c>
       <c r="K172" t="n">
-        <v>-69.23076923076923</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L172" t="n">
         <v>168.3</v>
@@ -9051,7 +9073,7 @@
         <v>158</v>
       </c>
       <c r="K173" t="n">
-        <v>-46.66666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L173" t="n">
         <v>167.8</v>
@@ -9153,7 +9175,7 @@
         <v>162</v>
       </c>
       <c r="K175" t="n">
-        <v>-29.41176470588236</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L175" t="n">
         <v>166.8</v>
@@ -9204,7 +9226,7 @@
         <v>162</v>
       </c>
       <c r="K176" t="n">
-        <v>-37.5</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L176" t="n">
         <v>166.3</v>
@@ -9255,7 +9277,7 @@
         <v>162</v>
       </c>
       <c r="K177" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L177" t="n">
         <v>166</v>
@@ -9306,7 +9328,7 @@
         <v>162</v>
       </c>
       <c r="K178" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L178" t="n">
         <v>165.9</v>
@@ -9357,7 +9379,7 @@
         <v>163</v>
       </c>
       <c r="K179" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>165.9</v>
@@ -9408,7 +9430,7 @@
         <v>165</v>
       </c>
       <c r="K180" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L180" t="n">
         <v>165.7</v>
@@ -9459,7 +9481,7 @@
         <v>165</v>
       </c>
       <c r="K181" t="n">
-        <v>-33.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L181" t="n">
         <v>165.5</v>
@@ -9510,7 +9532,7 @@
         <v>165</v>
       </c>
       <c r="K182" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L182" t="n">
         <v>165.6</v>
@@ -9561,7 +9583,7 @@
         <v>166</v>
       </c>
       <c r="K183" t="n">
-        <v>-36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>165.4</v>
@@ -9612,7 +9634,7 @@
         <v>169</v>
       </c>
       <c r="K184" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L184" t="n">
         <v>165.7</v>
@@ -9663,7 +9685,7 @@
         <v>169</v>
       </c>
       <c r="K185" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L185" t="n">
         <v>165.8</v>
@@ -9714,7 +9736,7 @@
         <v>170</v>
       </c>
       <c r="K186" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>165.8</v>
@@ -9765,7 +9787,7 @@
         <v>170</v>
       </c>
       <c r="K187" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>165.8</v>
@@ -9816,7 +9838,7 @@
         <v>172</v>
       </c>
       <c r="K188" t="n">
-        <v>5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L188" t="n">
         <v>166</v>
@@ -9867,7 +9889,7 @@
         <v>172</v>
       </c>
       <c r="K189" t="n">
-        <v>5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L189" t="n">
         <v>166.1</v>
@@ -9918,7 +9940,7 @@
         <v>173</v>
       </c>
       <c r="K190" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L190" t="n">
         <v>166.5</v>
@@ -9969,7 +9991,7 @@
         <v>176</v>
       </c>
       <c r="K191" t="n">
-        <v>-4.347826086956522</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L191" t="n">
         <v>166.6</v>
@@ -10020,7 +10042,7 @@
         <v>179</v>
       </c>
       <c r="K192" t="n">
-        <v>21.73913043478261</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L192" t="n">
         <v>167</v>
@@ -10071,7 +10093,7 @@
         <v>179</v>
       </c>
       <c r="K193" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L193" t="n">
         <v>167.5</v>
@@ -10122,7 +10144,7 @@
         <v>179</v>
       </c>
       <c r="K194" t="n">
-        <v>26.31578947368421</v>
+        <v>20</v>
       </c>
       <c r="L194" t="n">
         <v>167.7</v>
@@ -10173,7 +10195,7 @@
         <v>179</v>
       </c>
       <c r="K195" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>167.9</v>
@@ -10224,7 +10246,7 @@
         <v>179</v>
       </c>
       <c r="K196" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L196" t="n">
         <v>168.2</v>
@@ -10275,7 +10297,7 @@
         <v>179</v>
       </c>
       <c r="K197" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L197" t="n">
         <v>168.5</v>
@@ -10326,7 +10348,7 @@
         <v>179</v>
       </c>
       <c r="K198" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L198" t="n">
         <v>168.6</v>
@@ -10377,7 +10399,7 @@
         <v>180</v>
       </c>
       <c r="K199" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L199" t="n">
         <v>168.6</v>
@@ -10428,7 +10450,7 @@
         <v>180</v>
       </c>
       <c r="K200" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L200" t="n">
         <v>168.5</v>
@@ -10479,7 +10501,7 @@
         <v>181</v>
       </c>
       <c r="K201" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>168.8</v>
@@ -10530,7 +10552,7 @@
         <v>183</v>
       </c>
       <c r="K202" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L202" t="n">
         <v>169</v>
@@ -10581,7 +10603,7 @@
         <v>184</v>
       </c>
       <c r="K203" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L203" t="n">
         <v>169.1</v>
@@ -10734,7 +10756,7 @@
         <v>184</v>
       </c>
       <c r="K206" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L206" t="n">
         <v>169.4</v>
@@ -10836,7 +10858,7 @@
         <v>185</v>
       </c>
       <c r="K208" t="n">
-        <v>23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L208" t="n">
         <v>169.8</v>
@@ -10887,7 +10909,7 @@
         <v>186</v>
       </c>
       <c r="K209" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>170</v>
@@ -10938,7 +10960,7 @@
         <v>187</v>
       </c>
       <c r="K210" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L210" t="n">
         <v>170.3</v>
@@ -10989,7 +11011,7 @@
         <v>188</v>
       </c>
       <c r="K211" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L211" t="n">
         <v>170.6</v>
@@ -11040,7 +11062,7 @@
         <v>189</v>
       </c>
       <c r="K212" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L212" t="n">
         <v>170.8</v>
@@ -11091,7 +11113,7 @@
         <v>191</v>
       </c>
       <c r="K213" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L213" t="n">
         <v>170.9</v>
@@ -11142,7 +11164,7 @@
         <v>191</v>
       </c>
       <c r="K214" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L214" t="n">
         <v>171</v>
@@ -11193,7 +11215,7 @@
         <v>195</v>
       </c>
       <c r="K215" t="n">
-        <v>37.5</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L215" t="n">
         <v>171.5</v>
@@ -11244,7 +11266,7 @@
         <v>198</v>
       </c>
       <c r="K216" t="n">
-        <v>15.78947368421053</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L216" t="n">
         <v>171.7</v>
@@ -11295,7 +11317,7 @@
         <v>199</v>
       </c>
       <c r="K217" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L217" t="n">
         <v>171.9</v>
@@ -11346,7 +11368,7 @@
         <v>200</v>
       </c>
       <c r="K218" t="n">
-        <v>23.80952380952381</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L218" t="n">
         <v>172.2</v>
@@ -11397,7 +11419,7 @@
         <v>201</v>
       </c>
       <c r="K219" t="n">
-        <v>23.80952380952381</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L219" t="n">
         <v>172.5</v>
@@ -11448,7 +11470,7 @@
         <v>202</v>
       </c>
       <c r="K220" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>172.6</v>
@@ -11499,7 +11521,7 @@
         <v>202</v>
       </c>
       <c r="K221" t="n">
-        <v>14.28571428571428</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L221" t="n">
         <v>172.6</v>
@@ -11550,7 +11572,7 @@
         <v>203</v>
       </c>
       <c r="K222" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L222" t="n">
         <v>172.6</v>
@@ -11601,7 +11623,7 @@
         <v>203</v>
       </c>
       <c r="K223" t="n">
-        <v>15.78947368421053</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L223" t="n">
         <v>172.8</v>
@@ -11652,7 +11674,7 @@
         <v>203</v>
       </c>
       <c r="K224" t="n">
-        <v>15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L224" t="n">
         <v>173</v>
@@ -11703,7 +11725,7 @@
         <v>204</v>
       </c>
       <c r="K225" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>172.7</v>
@@ -11754,7 +11776,7 @@
         <v>204</v>
       </c>
       <c r="K226" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="L226" t="n">
         <v>172.7</v>
@@ -11805,7 +11827,7 @@
         <v>206</v>
       </c>
       <c r="K227" t="n">
-        <v>-4.761904761904762</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L227" t="n">
         <v>172.4</v>
@@ -11856,7 +11878,7 @@
         <v>206</v>
       </c>
       <c r="K228" t="n">
-        <v>-4.761904761904762</v>
+        <v>-60</v>
       </c>
       <c r="L228" t="n">
         <v>172</v>
@@ -11907,7 +11929,7 @@
         <v>207</v>
       </c>
       <c r="K229" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L229" t="n">
         <v>171.8</v>
@@ -11958,7 +11980,7 @@
         <v>207</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L230" t="n">
         <v>171.7</v>
@@ -12009,7 +12031,7 @@
         <v>208</v>
       </c>
       <c r="K231" t="n">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="L231" t="n">
         <v>171.5</v>
@@ -12060,7 +12082,7 @@
         <v>208</v>
       </c>
       <c r="K232" t="n">
-        <v>-15.78947368421053</v>
+        <v>-60</v>
       </c>
       <c r="L232" t="n">
         <v>171.2</v>
@@ -12111,7 +12133,7 @@
         <v>208</v>
       </c>
       <c r="K233" t="n">
-        <v>-5.88235294117647</v>
+        <v>-60</v>
       </c>
       <c r="L233" t="n">
         <v>170.9</v>
@@ -12162,7 +12184,7 @@
         <v>208</v>
       </c>
       <c r="K234" t="n">
-        <v>-5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L234" t="n">
         <v>170.6</v>
@@ -12213,7 +12235,7 @@
         <v>208</v>
       </c>
       <c r="K235" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L235" t="n">
         <v>170.4</v>
@@ -12264,7 +12286,7 @@
         <v>209</v>
       </c>
       <c r="K236" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L236" t="n">
         <v>170.3</v>
@@ -12315,7 +12337,7 @@
         <v>209</v>
       </c>
       <c r="K237" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L237" t="n">
         <v>170.4</v>
@@ -12366,7 +12388,7 @@
         <v>210</v>
       </c>
       <c r="K238" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>170.4</v>
@@ -12468,7 +12490,7 @@
         <v>210</v>
       </c>
       <c r="K240" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>170.2</v>
@@ -12519,7 +12541,7 @@
         <v>210</v>
       </c>
       <c r="K241" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>170.2</v>
@@ -12570,7 +12592,7 @@
         <v>210</v>
       </c>
       <c r="K242" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>170.2</v>
@@ -12621,7 +12643,7 @@
         <v>210</v>
       </c>
       <c r="K243" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>170.2</v>
@@ -12672,7 +12694,7 @@
         <v>210</v>
       </c>
       <c r="K244" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>170.2</v>
@@ -12723,7 +12745,7 @@
         <v>211</v>
       </c>
       <c r="K245" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L245" t="n">
         <v>170.1</v>
@@ -12774,7 +12796,7 @@
         <v>212</v>
       </c>
       <c r="K246" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>170</v>
@@ -12825,7 +12847,7 @@
         <v>213</v>
       </c>
       <c r="K247" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L247" t="n">
         <v>169.8</v>
@@ -12876,7 +12898,7 @@
         <v>215</v>
       </c>
       <c r="K248" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L248" t="n">
         <v>169.9</v>
@@ -12927,7 +12949,7 @@
         <v>216</v>
       </c>
       <c r="K249" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>169.9</v>
@@ -12978,7 +13000,7 @@
         <v>216</v>
       </c>
       <c r="K250" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>169.9</v>
@@ -13080,7 +13102,7 @@
         <v>217</v>
       </c>
       <c r="K252" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L252" t="n">
         <v>169.8</v>
@@ -13131,7 +13153,7 @@
         <v>218</v>
       </c>
       <c r="K253" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L253" t="n">
         <v>169.6</v>
@@ -13182,7 +13204,7 @@
         <v>218</v>
       </c>
       <c r="K254" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L254" t="n">
         <v>169.4</v>
@@ -13233,7 +13255,7 @@
         <v>219</v>
       </c>
       <c r="K255" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L255" t="n">
         <v>169.4</v>
@@ -13284,7 +13306,7 @@
         <v>219</v>
       </c>
       <c r="K256" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>169.3</v>
@@ -13437,7 +13459,7 @@
         <v>223</v>
       </c>
       <c r="K259" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L259" t="n">
         <v>169.3</v>
@@ -13488,7 +13510,7 @@
         <v>223</v>
       </c>
       <c r="K260" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L260" t="n">
         <v>169.2</v>
@@ -13539,7 +13561,7 @@
         <v>223</v>
       </c>
       <c r="K261" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>169.1</v>
@@ -13590,7 +13612,7 @@
         <v>223</v>
       </c>
       <c r="K262" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L262" t="n">
         <v>169.1</v>
@@ -13641,7 +13663,7 @@
         <v>223</v>
       </c>
       <c r="K263" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L263" t="n">
         <v>169.2</v>
@@ -13692,7 +13714,7 @@
         <v>225</v>
       </c>
       <c r="K264" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>169.5</v>
@@ -13743,7 +13765,7 @@
         <v>228</v>
       </c>
       <c r="K265" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L265" t="n">
         <v>169.4</v>
@@ -13794,7 +13816,7 @@
         <v>229</v>
       </c>
       <c r="K266" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L266" t="n">
         <v>169.4</v>
@@ -13845,7 +13867,7 @@
         <v>230</v>
       </c>
       <c r="K267" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L267" t="n">
         <v>169.1</v>
@@ -13896,7 +13918,7 @@
         <v>232</v>
       </c>
       <c r="K268" t="n">
-        <v>-5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L268" t="n">
         <v>169.1</v>
@@ -13947,7 +13969,7 @@
         <v>233</v>
       </c>
       <c r="K269" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>169.1</v>
@@ -13998,7 +14020,7 @@
         <v>235</v>
       </c>
       <c r="K270" t="n">
-        <v>5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L270" t="n">
         <v>169.3</v>
@@ -14049,7 +14071,7 @@
         <v>235</v>
       </c>
       <c r="K271" t="n">
-        <v>5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L271" t="n">
         <v>169.5</v>
@@ -14100,7 +14122,7 @@
         <v>235</v>
       </c>
       <c r="K272" t="n">
-        <v>11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L272" t="n">
         <v>169.7</v>
@@ -14151,7 +14173,7 @@
         <v>235</v>
       </c>
       <c r="K273" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>169.9</v>
@@ -14202,7 +14224,7 @@
         <v>236</v>
       </c>
       <c r="K274" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L274" t="n">
         <v>169.8</v>
@@ -14253,7 +14275,7 @@
         <v>237</v>
       </c>
       <c r="K275" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L275" t="n">
         <v>170.1</v>
@@ -14304,7 +14326,7 @@
         <v>237</v>
       </c>
       <c r="K276" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L276" t="n">
         <v>170.3</v>
@@ -14355,7 +14377,7 @@
         <v>238</v>
       </c>
       <c r="K277" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>170.5</v>
@@ -14406,7 +14428,7 @@
         <v>239</v>
       </c>
       <c r="K278" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>170.4</v>
@@ -14457,7 +14479,7 @@
         <v>241</v>
       </c>
       <c r="K279" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>170.6</v>
@@ -14508,7 +14530,7 @@
         <v>242</v>
       </c>
       <c r="K280" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L280" t="n">
         <v>170.7</v>
@@ -14559,7 +14581,7 @@
         <v>243</v>
       </c>
       <c r="K281" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>170.7</v>
@@ -14610,7 +14632,7 @@
         <v>244</v>
       </c>
       <c r="K282" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L282" t="n">
         <v>170.8</v>
@@ -14661,7 +14683,7 @@
         <v>247</v>
       </c>
       <c r="K283" t="n">
-        <v>25</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L283" t="n">
         <v>171.2</v>
@@ -14712,7 +14734,7 @@
         <v>248</v>
       </c>
       <c r="K284" t="n">
-        <v>13.04347826086956</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L284" t="n">
         <v>171.6</v>
@@ -14763,7 +14785,7 @@
         <v>248</v>
       </c>
       <c r="K285" t="n">
-        <v>30</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L285" t="n">
         <v>171.9</v>
@@ -14814,7 +14836,7 @@
         <v>250</v>
       </c>
       <c r="K286" t="n">
-        <v>14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L286" t="n">
         <v>172</v>
@@ -14865,7 +14887,7 @@
         <v>250</v>
       </c>
       <c r="K287" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L287" t="n">
         <v>172.2</v>
@@ -14916,7 +14938,7 @@
         <v>253</v>
       </c>
       <c r="K288" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>172.8</v>
@@ -14967,7 +14989,7 @@
         <v>256</v>
       </c>
       <c r="K289" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>172.9</v>
@@ -15018,7 +15040,7 @@
         <v>258</v>
       </c>
       <c r="K290" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L290" t="n">
         <v>173.1</v>
@@ -15069,7 +15091,7 @@
         <v>260</v>
       </c>
       <c r="K291" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L291" t="n">
         <v>173.6</v>
@@ -15120,7 +15142,7 @@
         <v>261</v>
       </c>
       <c r="K292" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L292" t="n">
         <v>174.1</v>
@@ -15171,7 +15193,7 @@
         <v>262</v>
       </c>
       <c r="K293" t="n">
-        <v>18.51851851851852</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L293" t="n">
         <v>174.2</v>
@@ -15222,7 +15244,7 @@
         <v>265</v>
       </c>
       <c r="K294" t="n">
-        <v>31.03448275862069</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L294" t="n">
         <v>174.7</v>
@@ -15273,7 +15295,7 @@
         <v>271</v>
       </c>
       <c r="K295" t="n">
-        <v>41.17647058823529</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L295" t="n">
         <v>175.8</v>
@@ -15324,7 +15346,7 @@
         <v>273</v>
       </c>
       <c r="K296" t="n">
-        <v>33.33333333333333</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L296" t="n">
         <v>176.9</v>
@@ -15375,7 +15397,7 @@
         <v>273</v>
       </c>
       <c r="K297" t="n">
-        <v>37.14285714285715</v>
+        <v>40</v>
       </c>
       <c r="L297" t="n">
         <v>178</v>
@@ -15426,7 +15448,7 @@
         <v>274</v>
       </c>
       <c r="K298" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L298" t="n">
         <v>178.9</v>
@@ -15477,7 +15499,7 @@
         <v>279</v>
       </c>
       <c r="K299" t="n">
-        <v>47.36842105263158</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L299" t="n">
         <v>180.6</v>
@@ -15528,7 +15550,7 @@
         <v>284</v>
       </c>
       <c r="K300" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>181.6</v>
@@ -15630,7 +15652,7 @@
         <v>286</v>
       </c>
       <c r="K302" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L302" t="n">
         <v>183.2</v>
@@ -15681,7 +15703,7 @@
         <v>288</v>
       </c>
       <c r="K303" t="n">
-        <v>17.07317073170732</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L303" t="n">
         <v>183.8</v>
@@ -15732,7 +15754,7 @@
         <v>290</v>
       </c>
       <c r="K304" t="n">
-        <v>14.28571428571428</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L304" t="n">
         <v>183.9</v>
@@ -15783,7 +15805,7 @@
         <v>291</v>
       </c>
       <c r="K305" t="n">
-        <v>11.62790697674419</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L305" t="n">
         <v>183.3</v>
@@ -15834,7 +15856,7 @@
         <v>294</v>
       </c>
       <c r="K306" t="n">
-        <v>22.72727272727273</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L306" t="n">
         <v>183.2</v>
@@ -15885,7 +15907,7 @@
         <v>294</v>
       </c>
       <c r="K307" t="n">
-        <v>22.72727272727273</v>
+        <v>-10</v>
       </c>
       <c r="L307" t="n">
         <v>183.1</v>
@@ -15936,7 +15958,7 @@
         <v>296</v>
       </c>
       <c r="K308" t="n">
-        <v>11.62790697674419</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L308" t="n">
         <v>182.7</v>
@@ -15987,7 +16009,7 @@
         <v>297</v>
       </c>
       <c r="K309" t="n">
-        <v>21.95121951219512</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L309" t="n">
         <v>181.9</v>
@@ -16038,7 +16060,7 @@
         <v>304</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L310" t="n">
         <v>180.9</v>
@@ -16089,7 +16111,7 @@
         <v>305</v>
       </c>
       <c r="K311" t="n">
-        <v>-2.222222222222222</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L311" t="n">
         <v>179.9</v>
@@ -16140,7 +16162,7 @@
         <v>305</v>
       </c>
       <c r="K312" t="n">
-        <v>-4.545454545454546</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L312" t="n">
         <v>179</v>
@@ -16191,7 +16213,7 @@
         <v>306</v>
       </c>
       <c r="K313" t="n">
-        <v>-4.545454545454546</v>
+        <v>-37.5</v>
       </c>
       <c r="L313" t="n">
         <v>178.2</v>
@@ -16242,7 +16264,7 @@
         <v>306</v>
       </c>
       <c r="K314" t="n">
-        <v>-12.19512195121951</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L314" t="n">
         <v>177.6</v>
@@ -16293,7 +16315,7 @@
         <v>307</v>
       </c>
       <c r="K315" t="n">
-        <v>-33.33333333333333</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L315" t="n">
         <v>177</v>
@@ -16344,7 +16366,7 @@
         <v>307</v>
       </c>
       <c r="K316" t="n">
-        <v>-29.41176470588236</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L316" t="n">
         <v>176.1</v>
@@ -16395,7 +16417,7 @@
         <v>307</v>
       </c>
       <c r="K317" t="n">
-        <v>-29.41176470588236</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L317" t="n">
         <v>175.2</v>
@@ -16446,7 +16468,7 @@
         <v>308</v>
       </c>
       <c r="K318" t="n">
-        <v>-29.41176470588236</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L318" t="n">
         <v>174.6</v>
@@ -16497,7 +16519,7 @@
         <v>308</v>
       </c>
       <c r="K319" t="n">
-        <v>-51.72413793103448</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>173.9</v>
@@ -16548,7 +16570,7 @@
         <v>309</v>
       </c>
       <c r="K320" t="n">
-        <v>-44</v>
+        <v>-50</v>
       </c>
       <c r="L320" t="n">
         <v>173.8</v>
@@ -16599,7 +16621,7 @@
         <v>310</v>
       </c>
       <c r="K321" t="n">
-        <v>-44</v>
+        <v>-20</v>
       </c>
       <c r="L321" t="n">
         <v>173.7</v>
@@ -16650,7 +16672,7 @@
         <v>310</v>
       </c>
       <c r="K322" t="n">
-        <v>-41.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>173.6</v>
@@ -16701,7 +16723,7 @@
         <v>310</v>
       </c>
       <c r="K323" t="n">
-        <v>-36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>173.6</v>
@@ -16752,7 +16774,7 @@
         <v>311</v>
       </c>
       <c r="K324" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>173.5</v>
@@ -16803,7 +16825,7 @@
         <v>312</v>
       </c>
       <c r="K325" t="n">
-        <v>-23.80952380952381</v>
+        <v>20</v>
       </c>
       <c r="L325" t="n">
         <v>173.6</v>
@@ -16854,7 +16876,7 @@
         <v>313</v>
       </c>
       <c r="K326" t="n">
-        <v>-36.84210526315789</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L326" t="n">
         <v>173.8</v>
@@ -16905,7 +16927,7 @@
         <v>313</v>
       </c>
       <c r="K327" t="n">
-        <v>-36.84210526315789</v>
+        <v>20</v>
       </c>
       <c r="L327" t="n">
         <v>174</v>
@@ -16956,7 +16978,7 @@
         <v>313</v>
       </c>
       <c r="K328" t="n">
-        <v>-29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L328" t="n">
         <v>174.1</v>
@@ -17007,7 +17029,7 @@
         <v>314</v>
       </c>
       <c r="K329" t="n">
-        <v>-41.17647058823529</v>
+        <v>20</v>
       </c>
       <c r="L329" t="n">
         <v>174.1</v>
@@ -17058,7 +17080,7 @@
         <v>315</v>
       </c>
       <c r="K330" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L330" t="n">
         <v>174.1</v>
@@ -17109,7 +17131,7 @@
         <v>316</v>
       </c>
       <c r="K331" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L331" t="n">
         <v>173.9</v>
@@ -17160,7 +17182,7 @@
         <v>317</v>
       </c>
       <c r="K332" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L332" t="n">
         <v>173.8</v>
@@ -17211,7 +17233,7 @@
         <v>317</v>
       </c>
       <c r="K333" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>173.7</v>
@@ -17313,7 +17335,7 @@
         <v>318</v>
       </c>
       <c r="K335" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L335" t="n">
         <v>173.8</v>
@@ -17364,7 +17386,7 @@
         <v>318</v>
       </c>
       <c r="K336" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L336" t="n">
         <v>173.7</v>
@@ -17415,7 +17437,7 @@
         <v>318</v>
       </c>
       <c r="K337" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L337" t="n">
         <v>173.6</v>
@@ -17517,7 +17539,7 @@
         <v>319</v>
       </c>
       <c r="K339" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L339" t="n">
         <v>173.6</v>
@@ -17568,7 +17590,7 @@
         <v>319</v>
       </c>
       <c r="K340" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L340" t="n">
         <v>173.8</v>
@@ -17619,7 +17641,7 @@
         <v>319</v>
       </c>
       <c r="K341" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L341" t="n">
         <v>174.1</v>
@@ -17670,7 +17692,7 @@
         <v>320</v>
       </c>
       <c r="K342" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L342" t="n">
         <v>174.4</v>
@@ -17721,7 +17743,7 @@
         <v>321</v>
       </c>
       <c r="K343" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L343" t="n">
         <v>174.8</v>
@@ -17772,7 +17794,7 @@
         <v>321</v>
       </c>
       <c r="K344" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L344" t="n">
         <v>175.1</v>
@@ -17823,7 +17845,7 @@
         <v>321</v>
       </c>
       <c r="K345" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L345" t="n">
         <v>175.4</v>
@@ -17874,7 +17896,7 @@
         <v>323</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L346" t="n">
         <v>175.5</v>
@@ -17925,7 +17947,7 @@
         <v>326</v>
       </c>
       <c r="K347" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L347" t="n">
         <v>175.9</v>
@@ -17976,7 +17998,7 @@
         <v>328</v>
       </c>
       <c r="K348" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L348" t="n">
         <v>176.5</v>
@@ -18027,7 +18049,7 @@
         <v>329</v>
       </c>
       <c r="K349" t="n">
-        <v>33.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="L349" t="n">
         <v>176.9</v>
@@ -18078,7 +18100,7 @@
         <v>331</v>
       </c>
       <c r="K350" t="n">
-        <v>25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L350" t="n">
         <v>177.1</v>
@@ -18129,7 +18151,7 @@
         <v>331</v>
       </c>
       <c r="K351" t="n">
-        <v>33.33333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L351" t="n">
         <v>177.3</v>
@@ -18180,7 +18202,7 @@
         <v>332</v>
       </c>
       <c r="K352" t="n">
-        <v>33.33333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L352" t="n">
         <v>177.5</v>
@@ -18231,7 +18253,7 @@
         <v>333</v>
       </c>
       <c r="K353" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>177.5</v>
@@ -18282,7 +18304,7 @@
         <v>338</v>
       </c>
       <c r="K354" t="n">
-        <v>40</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L354" t="n">
         <v>178</v>
@@ -18333,7 +18355,7 @@
         <v>342</v>
       </c>
       <c r="K355" t="n">
-        <v>16.66666666666666</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L355" t="n">
         <v>178.1</v>
@@ -18384,7 +18406,7 @@
         <v>343</v>
       </c>
       <c r="K356" t="n">
-        <v>12</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L356" t="n">
         <v>178.3</v>
@@ -18435,7 +18457,7 @@
         <v>346</v>
       </c>
       <c r="K357" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>178.5</v>
@@ -18486,7 +18508,7 @@
         <v>347</v>
       </c>
       <c r="K358" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>178.4</v>
@@ -18537,7 +18559,7 @@
         <v>349</v>
       </c>
       <c r="K359" t="n">
-        <v>20</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L359" t="n">
         <v>178.6</v>
@@ -18588,7 +18610,7 @@
         <v>350</v>
       </c>
       <c r="K360" t="n">
-        <v>22.58064516129032</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L360" t="n">
         <v>179.1</v>
@@ -18639,7 +18661,7 @@
         <v>353</v>
       </c>
       <c r="K361" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L361" t="n">
         <v>179.9</v>
@@ -18690,7 +18712,7 @@
         <v>356</v>
       </c>
       <c r="K362" t="n">
-        <v>33.33333333333333</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L362" t="n">
         <v>180.9</v>
@@ -18741,7 +18763,7 @@
         <v>358</v>
       </c>
       <c r="K363" t="n">
-        <v>35.13513513513514</v>
+        <v>40</v>
       </c>
       <c r="L363" t="n">
         <v>182.2</v>
@@ -18792,7 +18814,7 @@
         <v>360</v>
       </c>
       <c r="K364" t="n">
-        <v>28.2051282051282</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L364" t="n">
         <v>182.8</v>
@@ -18843,7 +18865,7 @@
         <v>364</v>
       </c>
       <c r="K365" t="n">
-        <v>34.88372093023256</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L365" t="n">
         <v>184.2</v>
@@ -18894,7 +18916,7 @@
         <v>364</v>
       </c>
       <c r="K366" t="n">
-        <v>41.46341463414634</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L366" t="n">
         <v>185.7</v>
@@ -18945,7 +18967,7 @@
         <v>365</v>
       </c>
       <c r="K367" t="n">
-        <v>38.46153846153847</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L367" t="n">
         <v>187</v>
@@ -18996,7 +19018,7 @@
         <v>367</v>
       </c>
       <c r="K368" t="n">
-        <v>28.2051282051282</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L368" t="n">
         <v>188.2</v>
@@ -19047,7 +19069,7 @@
         <v>373</v>
       </c>
       <c r="K369" t="n">
-        <v>13.63636363636363</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L369" t="n">
         <v>188.6</v>
@@ -19098,7 +19120,7 @@
         <v>373</v>
       </c>
       <c r="K370" t="n">
-        <v>19.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>188.9</v>
@@ -19149,7 +19171,7 @@
         <v>373</v>
       </c>
       <c r="K371" t="n">
-        <v>19.04761904761905</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L371" t="n">
         <v>188.9</v>
@@ -19200,7 +19222,7 @@
         <v>375</v>
       </c>
       <c r="K372" t="n">
-        <v>11.62790697674419</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L372" t="n">
         <v>188.4</v>
@@ -19251,7 +19273,7 @@
         <v>376</v>
       </c>
       <c r="K373" t="n">
-        <v>11.62790697674419</v>
+        <v>-37.5</v>
       </c>
       <c r="L373" t="n">
         <v>187.6</v>
@@ -19302,7 +19324,7 @@
         <v>378</v>
       </c>
       <c r="K374" t="n">
-        <v>-5</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L374" t="n">
         <v>186.8</v>
@@ -19353,7 +19375,7 @@
         <v>380</v>
       </c>
       <c r="K375" t="n">
-        <v>10.52631578947368</v>
+        <v>-62.5</v>
       </c>
       <c r="L375" t="n">
         <v>185.8</v>
@@ -19404,7 +19426,7 @@
         <v>380</v>
       </c>
       <c r="K376" t="n">
-        <v>13.51351351351351</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L376" t="n">
         <v>184.8</v>
@@ -19455,7 +19477,7 @@
         <v>380</v>
       </c>
       <c r="K377" t="n">
-        <v>5.88235294117647</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L377" t="n">
         <v>183.7</v>
@@ -19506,7 +19528,7 @@
         <v>383</v>
       </c>
       <c r="K378" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>183.1</v>
@@ -19557,7 +19579,7 @@
         <v>386</v>
       </c>
       <c r="K379" t="n">
-        <v>2.702702702702703</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L379" t="n">
         <v>182.8</v>
@@ -19608,7 +19630,7 @@
         <v>387</v>
       </c>
       <c r="K380" t="n">
-        <v>2.702702702702703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L380" t="n">
         <v>182.6</v>
@@ -19659,7 +19681,7 @@
         <v>388</v>
       </c>
       <c r="K381" t="n">
-        <v>-2.857142857142857</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L381" t="n">
         <v>182.5</v>
@@ -19710,7 +19732,7 @@
         <v>392</v>
       </c>
       <c r="K382" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L382" t="n">
         <v>183</v>
@@ -19761,7 +19783,7 @@
         <v>393</v>
       </c>
       <c r="K383" t="n">
-        <v>-8.571428571428571</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L383" t="n">
         <v>183.5</v>
@@ -19812,7 +19834,7 @@
         <v>394</v>
       </c>
       <c r="K384" t="n">
-        <v>-5.88235294117647</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L384" t="n">
         <v>184.1</v>
@@ -19863,7 +19885,7 @@
         <v>394</v>
       </c>
       <c r="K385" t="n">
-        <v>-20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L385" t="n">
         <v>184.5</v>
@@ -19914,7 +19936,7 @@
         <v>394</v>
       </c>
       <c r="K386" t="n">
-        <v>-20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L386" t="n">
         <v>184.9</v>
@@ -19965,7 +19987,7 @@
         <v>396</v>
       </c>
       <c r="K387" t="n">
-        <v>-16.12903225806452</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L387" t="n">
         <v>185.5</v>
@@ -20016,7 +20038,7 @@
         <v>396</v>
       </c>
       <c r="K388" t="n">
-        <v>-10.3448275862069</v>
+        <v>60</v>
       </c>
       <c r="L388" t="n">
         <v>185.8</v>
@@ -20067,7 +20089,7 @@
         <v>397</v>
       </c>
       <c r="K389" t="n">
-        <v>8.333333333333332</v>
+        <v>40</v>
       </c>
       <c r="L389" t="n">
         <v>186.3</v>
@@ -20118,7 +20140,7 @@
         <v>397</v>
       </c>
       <c r="K390" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L390" t="n">
         <v>186.7</v>
@@ -20169,7 +20191,7 @@
         <v>401</v>
       </c>
       <c r="K391" t="n">
-        <v>21.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L391" t="n">
         <v>187.4</v>
@@ -20220,7 +20242,7 @@
         <v>405</v>
       </c>
       <c r="K392" t="n">
-        <v>40</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L392" t="n">
         <v>188.1</v>
@@ -20271,7 +20293,7 @@
         <v>408</v>
       </c>
       <c r="K393" t="n">
-        <v>31.25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L393" t="n">
         <v>188.6</v>
@@ -20322,7 +20344,7 @@
         <v>409</v>
       </c>
       <c r="K394" t="n">
-        <v>41.93548387096774</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L394" t="n">
         <v>189.3</v>
@@ -20373,7 +20395,7 @@
         <v>409</v>
       </c>
       <c r="K395" t="n">
-        <v>37.93103448275862</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L395" t="n">
         <v>190</v>
@@ -20424,7 +20446,7 @@
         <v>410</v>
       </c>
       <c r="K396" t="n">
-        <v>33.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L396" t="n">
         <v>190.6</v>
@@ -20475,7 +20497,7 @@
         <v>411</v>
       </c>
       <c r="K397" t="n">
-        <v>29.03225806451613</v>
+        <v>20</v>
       </c>
       <c r="L397" t="n">
         <v>190.9</v>
@@ -20526,7 +20548,7 @@
         <v>413</v>
       </c>
       <c r="K398" t="n">
-        <v>13.33333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="L398" t="n">
         <v>191</v>
@@ -20577,7 +20599,7 @@
         <v>414</v>
       </c>
       <c r="K399" t="n">
-        <v>21.42857142857143</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L399" t="n">
         <v>191.1</v>
@@ -20628,7 +20650,7 @@
         <v>414</v>
       </c>
       <c r="K400" t="n">
-        <v>18.51851851851852</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L400" t="n">
         <v>191.2</v>
@@ -20679,7 +20701,7 @@
         <v>414</v>
       </c>
       <c r="K401" t="n">
-        <v>15.38461538461539</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L401" t="n">
         <v>190.9</v>
@@ -20730,7 +20752,7 @@
         <v>414</v>
       </c>
       <c r="K402" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L402" t="n">
         <v>190.2</v>
@@ -20781,7 +20803,7 @@
         <v>414</v>
       </c>
       <c r="K403" t="n">
-        <v>4.761904761904762</v>
+        <v>-100</v>
       </c>
       <c r="L403" t="n">
         <v>189.8</v>
@@ -20832,7 +20854,7 @@
         <v>416</v>
       </c>
       <c r="K404" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L404" t="n">
         <v>189.1</v>
@@ -20883,7 +20905,7 @@
         <v>416</v>
       </c>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L405" t="n">
         <v>188.4</v>
@@ -20934,7 +20956,7 @@
         <v>418</v>
       </c>
       <c r="K406" t="n">
-        <v>-8.333333333333332</v>
+        <v>-100</v>
       </c>
       <c r="L406" t="n">
         <v>187.6</v>
@@ -20985,7 +21007,7 @@
         <v>420</v>
       </c>
       <c r="K407" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L407" t="n">
         <v>186.7</v>
@@ -21036,7 +21058,7 @@
         <v>421</v>
       </c>
       <c r="K408" t="n">
-        <v>-28</v>
+        <v>-100</v>
       </c>
       <c r="L408" t="n">
         <v>185.9</v>
@@ -21087,7 +21109,7 @@
         <v>422</v>
       </c>
       <c r="K409" t="n">
-        <v>-20</v>
+        <v>-75</v>
       </c>
       <c r="L409" t="n">
         <v>185.3</v>
@@ -21138,7 +21160,7 @@
         <v>423</v>
       </c>
       <c r="K410" t="n">
-        <v>-23.07692307692308</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L410" t="n">
         <v>184.6</v>
@@ -21189,7 +21211,7 @@
         <v>425</v>
       </c>
       <c r="K411" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L411" t="n">
         <v>184.1</v>
@@ -21240,7 +21262,7 @@
         <v>425</v>
       </c>
       <c r="K412" t="n">
-        <v>-60</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L412" t="n">
         <v>183.6</v>
@@ -21291,7 +21313,7 @@
         <v>426</v>
       </c>
       <c r="K413" t="n">
-        <v>-55.55555555555556</v>
+        <v>-40</v>
       </c>
       <c r="L413" t="n">
         <v>183</v>
@@ -21342,7 +21364,7 @@
         <v>427</v>
       </c>
       <c r="K414" t="n">
-        <v>-55.55555555555556</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L414" t="n">
         <v>182.7</v>
@@ -21393,7 +21415,7 @@
         <v>428</v>
       </c>
       <c r="K415" t="n">
-        <v>-57.89473684210527</v>
+        <v>-20</v>
       </c>
       <c r="L415" t="n">
         <v>182.3</v>
@@ -21444,7 +21466,7 @@
         <v>429</v>
       </c>
       <c r="K416" t="n">
-        <v>-47.36842105263158</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L416" t="n">
         <v>182.2</v>
@@ -21495,7 +21517,7 @@
         <v>430</v>
       </c>
       <c r="K417" t="n">
-        <v>-36.84210526315789</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L417" t="n">
         <v>182.4</v>
@@ -21546,7 +21568,7 @@
         <v>431</v>
       </c>
       <c r="K418" t="n">
-        <v>-22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L418" t="n">
         <v>182.8</v>
@@ -21597,7 +21619,7 @@
         <v>431</v>
       </c>
       <c r="K419" t="n">
-        <v>-17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L419" t="n">
         <v>183.1</v>
@@ -21648,7 +21670,7 @@
         <v>432</v>
       </c>
       <c r="K420" t="n">
-        <v>-11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L420" t="n">
         <v>183.6</v>
@@ -21699,7 +21721,7 @@
         <v>432</v>
       </c>
       <c r="K421" t="n">
-        <v>-11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L421" t="n">
         <v>183.9</v>
@@ -21750,7 +21772,7 @@
         <v>432</v>
       </c>
       <c r="K422" t="n">
-        <v>-11.11111111111111</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L422" t="n">
         <v>184.2</v>
@@ -21801,7 +21823,7 @@
         <v>433</v>
       </c>
       <c r="K423" t="n">
-        <v>-15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L423" t="n">
         <v>184.5</v>
@@ -21852,7 +21874,7 @@
         <v>434</v>
       </c>
       <c r="K424" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L424" t="n">
         <v>184.6</v>
@@ -21903,7 +21925,7 @@
         <v>434</v>
       </c>
       <c r="K425" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L425" t="n">
         <v>184.8</v>
@@ -21954,7 +21976,7 @@
         <v>436</v>
       </c>
       <c r="K426" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L426" t="n">
         <v>184.7</v>
@@ -22005,7 +22027,7 @@
         <v>438</v>
       </c>
       <c r="K427" t="n">
-        <v>-11.11111111111111</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L427" t="n">
         <v>184.3</v>
@@ -22056,7 +22078,7 @@
         <v>449</v>
       </c>
       <c r="K428" t="n">
-        <v>-42.85714285714285</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L428" t="n">
         <v>182.7</v>
@@ -22107,7 +22129,7 @@
         <v>453</v>
       </c>
       <c r="K429" t="n">
-        <v>-29.03225806451613</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L429" t="n">
         <v>181.5</v>
@@ -22158,7 +22180,7 @@
         <v>453</v>
       </c>
       <c r="K430" t="n">
-        <v>-26.66666666666667</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L430" t="n">
         <v>180.2</v>
@@ -22209,7 +22231,7 @@
         <v>453</v>
       </c>
       <c r="K431" t="n">
-        <v>-35.71428571428572</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L431" t="n">
         <v>178.9</v>
@@ -22260,7 +22282,7 @@
         <v>454</v>
       </c>
       <c r="K432" t="n">
-        <v>-31.03448275862069</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L432" t="n">
         <v>177.7</v>
@@ -22311,7 +22333,7 @@
         <v>455</v>
       </c>
       <c r="K433" t="n">
-        <v>-31.03448275862069</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L433" t="n">
         <v>176.5</v>
@@ -22362,7 +22384,7 @@
         <v>455</v>
       </c>
       <c r="K434" t="n">
-        <v>-35.71428571428572</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L434" t="n">
         <v>175.4</v>
@@ -22413,7 +22435,7 @@
         <v>456</v>
       </c>
       <c r="K435" t="n">
-        <v>-35.71428571428572</v>
+        <v>-50</v>
       </c>
       <c r="L435" t="n">
         <v>174.2</v>
@@ -22464,7 +22486,7 @@
         <v>456</v>
       </c>
       <c r="K436" t="n">
-        <v>-40.74074074074074</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L436" t="n">
         <v>173.2</v>
@@ -22515,7 +22537,7 @@
         <v>457</v>
       </c>
       <c r="K437" t="n">
-        <v>-40.74074074074074</v>
+        <v>50</v>
       </c>
       <c r="L437" t="n">
         <v>172.5</v>
@@ -22566,7 +22588,7 @@
         <v>457</v>
       </c>
       <c r="K438" t="n">
-        <v>-46.15384615384615</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>172.9</v>
@@ -22617,7 +22639,7 @@
         <v>457</v>
       </c>
       <c r="K439" t="n">
-        <v>-46.15384615384615</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>172.9</v>
@@ -22668,7 +22690,7 @@
         <v>457</v>
       </c>
       <c r="K440" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>172.9</v>
@@ -22719,7 +22741,7 @@
         <v>458</v>
       </c>
       <c r="K441" t="n">
-        <v>-46.15384615384615</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>173</v>
@@ -22770,7 +22792,7 @@
         <v>459</v>
       </c>
       <c r="K442" t="n">
-        <v>-48.14814814814815</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>172.9</v>
@@ -22821,7 +22843,7 @@
         <v>460</v>
       </c>
       <c r="K443" t="n">
-        <v>-48.14814814814815</v>
+        <v>-20</v>
       </c>
       <c r="L443" t="n">
         <v>172.8</v>
@@ -22872,7 +22894,7 @@
         <v>460</v>
       </c>
       <c r="K444" t="n">
-        <v>-46.15384615384615</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>172.7</v>
@@ -22923,7 +22945,7 @@
         <v>461</v>
       </c>
       <c r="K445" t="n">
-        <v>-40.74074074074074</v>
+        <v>20</v>
       </c>
       <c r="L445" t="n">
         <v>172.8</v>
@@ -22974,7 +22996,7 @@
         <v>461</v>
       </c>
       <c r="K446" t="n">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>172.9</v>
@@ -23025,7 +23047,7 @@
         <v>461</v>
       </c>
       <c r="K447" t="n">
-        <v>-30.43478260869566</v>
+        <v>0</v>
       </c>
       <c r="L447" t="n">
         <v>172.9</v>
@@ -23076,7 +23098,7 @@
         <v>462</v>
       </c>
       <c r="K448" t="n">
-        <v>23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L448" t="n">
         <v>172.8</v>
@@ -23127,7 +23149,7 @@
         <v>464</v>
       </c>
       <c r="K449" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L449" t="n">
         <v>172.9</v>
@@ -23178,7 +23200,7 @@
         <v>464</v>
       </c>
       <c r="K450" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
         <v>173</v>
@@ -23229,7 +23251,7 @@
         <v>464</v>
       </c>
       <c r="K451" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L451" t="n">
         <v>173</v>
@@ -23280,7 +23302,7 @@
         <v>464</v>
       </c>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L452" t="n">
         <v>173.1</v>
@@ -23331,7 +23353,7 @@
         <v>464</v>
       </c>
       <c r="K453" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L453" t="n">
         <v>173.3</v>
@@ -23382,7 +23404,7 @@
         <v>466</v>
       </c>
       <c r="K454" t="n">
-        <v>27.27272727272727</v>
+        <v>60</v>
       </c>
       <c r="L454" t="n">
         <v>173.7</v>
@@ -23433,7 +23455,7 @@
         <v>466</v>
       </c>
       <c r="K455" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L455" t="n">
         <v>174</v>
@@ -23484,7 +23506,7 @@
         <v>467</v>
       </c>
       <c r="K456" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L456" t="n">
         <v>174.2</v>
@@ -23535,7 +23557,7 @@
         <v>468</v>
       </c>
       <c r="K457" t="n">
-        <v>27.27272727272727</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L457" t="n">
         <v>174.5</v>
@@ -23586,7 +23608,7 @@
         <v>469</v>
       </c>
       <c r="K458" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L458" t="n">
         <v>174.8</v>
@@ -23637,7 +23659,7 @@
         <v>473</v>
       </c>
       <c r="K459" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L459" t="n">
         <v>174.5</v>
@@ -23688,7 +23710,7 @@
         <v>474</v>
       </c>
       <c r="K460" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L460" t="n">
         <v>174.3</v>
@@ -23790,7 +23812,7 @@
         <v>477</v>
       </c>
       <c r="K462" t="n">
-        <v>11.11111111111111</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L462" t="n">
         <v>174.4</v>
@@ -23841,7 +23863,7 @@
         <v>479</v>
       </c>
       <c r="K463" t="n">
-        <v>26.31578947368421</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L463" t="n">
         <v>174.7</v>
@@ -23892,7 +23914,7 @@
         <v>479</v>
       </c>
       <c r="K464" t="n">
-        <v>26.31578947368421</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L464" t="n">
         <v>174.8</v>
@@ -23943,7 +23965,7 @@
         <v>484</v>
       </c>
       <c r="K465" t="n">
-        <v>39.1304347826087</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L465" t="n">
         <v>175.4</v>
@@ -23994,7 +24016,7 @@
         <v>484</v>
       </c>
       <c r="K466" t="n">
-        <v>39.1304347826087</v>
+        <v>37.5</v>
       </c>
       <c r="L466" t="n">
         <v>176.1</v>
@@ -24045,7 +24067,7 @@
         <v>484</v>
       </c>
       <c r="K467" t="n">
-        <v>39.1304347826087</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L467" t="n">
         <v>176.7</v>
@@ -24096,7 +24118,7 @@
         <v>485</v>
       </c>
       <c r="K468" t="n">
-        <v>39.1304347826087</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L468" t="n">
         <v>177.3</v>
@@ -24147,7 +24169,7 @@
         <v>489</v>
       </c>
       <c r="K469" t="n">
-        <v>12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L469" t="n">
         <v>177.9</v>
@@ -24198,7 +24220,7 @@
         <v>489</v>
       </c>
       <c r="K470" t="n">
-        <v>12</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L470" t="n">
         <v>178.4</v>
@@ -24249,7 +24271,7 @@
         <v>491</v>
       </c>
       <c r="K471" t="n">
-        <v>18.51851851851852</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L471" t="n">
         <v>178.9</v>
@@ -24300,7 +24322,7 @@
         <v>492</v>
       </c>
       <c r="K472" t="n">
-        <v>21.42857142857143</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L472" t="n">
         <v>179.4</v>
@@ -24351,7 +24373,7 @@
         <v>493</v>
       </c>
       <c r="K473" t="n">
-        <v>17.24137931034483</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L473" t="n">
         <v>179.6</v>
@@ -24402,7 +24424,7 @@
         <v>493</v>
       </c>
       <c r="K474" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L474" t="n">
         <v>179.8</v>
@@ -24453,7 +24475,7 @@
         <v>494</v>
       </c>
       <c r="K475" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L475" t="n">
         <v>179.6</v>
@@ -24504,7 +24526,7 @@
         <v>494</v>
       </c>
       <c r="K476" t="n">
-        <v>18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L476" t="n">
         <v>179.4</v>
@@ -24555,7 +24577,7 @@
         <v>496</v>
       </c>
       <c r="K477" t="n">
-        <v>7.142857142857142</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L477" t="n">
         <v>179</v>
@@ -24606,7 +24628,7 @@
         <v>497</v>
       </c>
       <c r="K478" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L478" t="n">
         <v>178.8</v>
@@ -24657,7 +24679,7 @@
         <v>497</v>
       </c>
       <c r="K479" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L479" t="n">
         <v>179</v>
@@ -24708,7 +24730,7 @@
         <v>498</v>
       </c>
       <c r="K480" t="n">
-        <v>25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L480" t="n">
         <v>179.1</v>
@@ -24759,7 +24781,7 @@
         <v>499</v>
       </c>
       <c r="K481" t="n">
-        <v>21.73913043478261</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L481" t="n">
         <v>179.1</v>
@@ -24810,7 +24832,7 @@
         <v>501</v>
       </c>
       <c r="K482" t="n">
-        <v>8.333333333333332</v>
+        <v>-25</v>
       </c>
       <c r="L482" t="n">
         <v>178.8</v>
@@ -24861,7 +24883,7 @@
         <v>503</v>
       </c>
       <c r="K483" t="n">
-        <v>-8.333333333333332</v>
+        <v>-40</v>
       </c>
       <c r="L483" t="n">
         <v>178.4</v>
@@ -24912,7 +24934,7 @@
         <v>505</v>
       </c>
       <c r="K484" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L484" t="n">
         <v>178.2</v>
@@ -24963,7 +24985,7 @@
         <v>509</v>
       </c>
       <c r="K485" t="n">
-        <v>-36</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L485" t="n">
         <v>177.5</v>
@@ -25014,7 +25036,7 @@
         <v>511</v>
       </c>
       <c r="K486" t="n">
-        <v>-25.92592592592592</v>
+        <v>-20</v>
       </c>
       <c r="L486" t="n">
         <v>177</v>
@@ -25065,7 +25087,7 @@
         <v>511</v>
       </c>
       <c r="K487" t="n">
-        <v>-25.92592592592592</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L487" t="n">
         <v>176.7</v>
@@ -25116,7 +25138,7 @@
         <v>514</v>
       </c>
       <c r="K488" t="n">
-        <v>-31.03448275862069</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L488" t="n">
         <v>176</v>
@@ -25167,7 +25189,7 @@
         <v>515</v>
       </c>
       <c r="K489" t="n">
-        <v>-23.07692307692308</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L489" t="n">
         <v>175.2</v>
@@ -25218,7 +25240,7 @@
         <v>516</v>
       </c>
       <c r="K490" t="n">
-        <v>-18.51851851851852</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L490" t="n">
         <v>174.6</v>
@@ -25269,7 +25291,7 @@
         <v>518</v>
       </c>
       <c r="K491" t="n">
-        <v>-33.33333333333333</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L491" t="n">
         <v>173.7</v>
@@ -25320,7 +25342,7 @@
         <v>523</v>
       </c>
       <c r="K492" t="n">
-        <v>-16.12903225806452</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>173.5</v>
@@ -25371,7 +25393,7 @@
         <v>523</v>
       </c>
       <c r="K493" t="n">
-        <v>-13.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L493" t="n">
         <v>173.5</v>
@@ -25422,7 +25444,7 @@
         <v>523</v>
       </c>
       <c r="K494" t="n">
-        <v>-13.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L494" t="n">
         <v>173.3</v>
@@ -25473,7 +25495,7 @@
         <v>523</v>
       </c>
       <c r="K495" t="n">
-        <v>-17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L495" t="n">
         <v>173.5</v>
@@ -25524,7 +25546,7 @@
         <v>524</v>
       </c>
       <c r="K496" t="n">
-        <v>-13.33333333333333</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L496" t="n">
         <v>173.6</v>
@@ -25575,7 +25597,7 @@
         <v>525</v>
       </c>
       <c r="K497" t="n">
-        <v>-3.448275862068965</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L497" t="n">
         <v>173.8</v>
@@ -25626,7 +25648,7 @@
         <v>527</v>
       </c>
       <c r="K498" t="n">
-        <v>-13.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L498" t="n">
         <v>174.1</v>
@@ -25677,7 +25699,7 @@
         <v>529</v>
       </c>
       <c r="K499" t="n">
-        <v>-18.75</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L499" t="n">
         <v>174.3</v>
@@ -25728,7 +25750,7 @@
         <v>529</v>
       </c>
       <c r="K500" t="n">
-        <v>-16.12903225806452</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L500" t="n">
         <v>174.4</v>
@@ -25779,7 +25801,7 @@
         <v>530</v>
       </c>
       <c r="K501" t="n">
-        <v>-16.12903225806452</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L501" t="n">
         <v>174.8</v>
@@ -25830,7 +25852,7 @@
         <v>530</v>
       </c>
       <c r="K502" t="n">
-        <v>-10.3448275862069</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L502" t="n">
         <v>174.7</v>
@@ -25881,7 +25903,7 @@
         <v>530</v>
       </c>
       <c r="K503" t="n">
-        <v>-3.703703703703703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L503" t="n">
         <v>174.6</v>
@@ -25932,7 +25954,7 @@
         <v>530</v>
       </c>
       <c r="K504" t="n">
-        <v>-12</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L504" t="n">
         <v>174.5</v>
@@ -25983,7 +26005,7 @@
         <v>530</v>
       </c>
       <c r="K505" t="n">
-        <v>4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L505" t="n">
         <v>174.4</v>
@@ -26034,7 +26056,7 @@
         <v>530</v>
       </c>
       <c r="K506" t="n">
-        <v>-5.263157894736842</v>
+        <v>-60</v>
       </c>
       <c r="L506" t="n">
         <v>174.2</v>
@@ -26136,7 +26158,7 @@
         <v>532</v>
       </c>
       <c r="K508" t="n">
-        <v>22.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L508" t="n">
         <v>174.1</v>
@@ -26187,7 +26209,7 @@
         <v>532</v>
       </c>
       <c r="K509" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L509" t="n">
         <v>174.4</v>
@@ -26238,7 +26260,7 @@
         <v>532</v>
       </c>
       <c r="K510" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L510" t="n">
         <v>174.7</v>
@@ -26289,7 +26311,7 @@
         <v>535</v>
       </c>
       <c r="K511" t="n">
-        <v>17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L511" t="n">
         <v>174.6</v>
@@ -26340,7 +26362,7 @@
         <v>537</v>
       </c>
       <c r="K512" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L512" t="n">
         <v>174.7</v>
@@ -26391,7 +26413,7 @@
         <v>537</v>
       </c>
       <c r="K513" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L513" t="n">
         <v>174.8</v>
@@ -26442,7 +26464,7 @@
         <v>540</v>
       </c>
       <c r="K514" t="n">
-        <v>17.64705882352941</v>
+        <v>40</v>
       </c>
       <c r="L514" t="n">
         <v>175.2</v>
@@ -26493,7 +26515,7 @@
         <v>543</v>
       </c>
       <c r="K515" t="n">
-        <v>30</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L515" t="n">
         <v>175.9</v>
@@ -26544,7 +26566,7 @@
         <v>544</v>
       </c>
       <c r="K516" t="n">
-        <v>30</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L516" t="n">
         <v>176.7</v>
@@ -26595,7 +26617,7 @@
         <v>546</v>
       </c>
       <c r="K517" t="n">
-        <v>14.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L517" t="n">
         <v>177.2</v>
@@ -26646,7 +26668,7 @@
         <v>548</v>
       </c>
       <c r="K518" t="n">
-        <v>33.33333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="L518" t="n">
         <v>177.8</v>
@@ -26697,7 +26719,7 @@
         <v>548</v>
       </c>
       <c r="K519" t="n">
-        <v>47.36842105263158</v>
+        <v>37.5</v>
       </c>
       <c r="L519" t="n">
         <v>178.4</v>
@@ -26748,7 +26770,7 @@
         <v>551</v>
       </c>
       <c r="K520" t="n">
-        <v>27.27272727272727</v>
+        <v>37.5</v>
       </c>
       <c r="L520" t="n">
         <v>178.7</v>
@@ -26799,7 +26821,7 @@
         <v>552</v>
       </c>
       <c r="K521" t="n">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L521" t="n">
         <v>179.2</v>
@@ -26850,7 +26872,7 @@
         <v>554</v>
       </c>
       <c r="K522" t="n">
-        <v>25</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L522" t="n">
         <v>179.7</v>
@@ -26901,7 +26923,7 @@
         <v>555</v>
       </c>
       <c r="K523" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L523" t="n">
         <v>180.3</v>
@@ -26952,7 +26974,7 @@
         <v>556</v>
       </c>
       <c r="K524" t="n">
-        <v>30.76923076923077</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L524" t="n">
         <v>180.7</v>
@@ -27003,7 +27025,7 @@
         <v>560</v>
       </c>
       <c r="K525" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L525" t="n">
         <v>181.2</v>
@@ -27054,7 +27076,7 @@
         <v>564</v>
       </c>
       <c r="K526" t="n">
-        <v>23.52941176470588</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L526" t="n">
         <v>181.2</v>
@@ -27105,7 +27127,7 @@
         <v>564</v>
       </c>
       <c r="K527" t="n">
-        <v>21.21212121212121</v>
+        <v>0</v>
       </c>
       <c r="L527" t="n">
         <v>181.4</v>
@@ -27156,7 +27178,7 @@
         <v>564</v>
       </c>
       <c r="K528" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="L528" t="n">
         <v>181.4</v>
@@ -27207,7 +27229,7 @@
         <v>567</v>
       </c>
       <c r="K529" t="n">
-        <v>8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L529" t="n">
         <v>181.1</v>
@@ -27258,7 +27280,7 @@
         <v>567</v>
       </c>
       <c r="K530" t="n">
-        <v>8.571428571428571</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L530" t="n">
         <v>181.1</v>
@@ -27309,7 +27331,7 @@
         <v>567</v>
       </c>
       <c r="K531" t="n">
-        <v>18.75</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L531" t="n">
         <v>181.2</v>
@@ -27360,7 +27382,7 @@
         <v>568</v>
       </c>
       <c r="K532" t="n">
-        <v>16.12903225806452</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L532" t="n">
         <v>181.2</v>
@@ -27411,7 +27433,7 @@
         <v>569</v>
       </c>
       <c r="K533" t="n">
-        <v>12.5</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L533" t="n">
         <v>181</v>
@@ -27462,7 +27484,7 @@
         <v>569</v>
       </c>
       <c r="K534" t="n">
-        <v>3.448275862068965</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L534" t="n">
         <v>180.7</v>
@@ -27513,7 +27535,7 @@
         <v>571</v>
       </c>
       <c r="K535" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L535" t="n">
         <v>180.2</v>
@@ -27615,7 +27637,7 @@
         <v>573</v>
       </c>
       <c r="K537" t="n">
-        <v>3.703703703703703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L537" t="n">
         <v>180.1</v>
@@ -27666,7 +27688,7 @@
         <v>575</v>
       </c>
       <c r="K538" t="n">
-        <v>3.703703703703703</v>
+        <v>50</v>
       </c>
       <c r="L538" t="n">
         <v>180.2</v>
@@ -27717,7 +27739,7 @@
         <v>577</v>
       </c>
       <c r="K539" t="n">
-        <v>-3.448275862068965</v>
+        <v>20</v>
       </c>
       <c r="L539" t="n">
         <v>180.4</v>
@@ -27768,7 +27790,7 @@
         <v>578</v>
       </c>
       <c r="K540" t="n">
-        <v>11.11111111111111</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L540" t="n">
         <v>180.7</v>
@@ -27819,7 +27841,7 @@
         <v>578</v>
       </c>
       <c r="K541" t="n">
-        <v>15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L541" t="n">
         <v>181</v>
@@ -27870,7 +27892,7 @@
         <v>580</v>
       </c>
       <c r="K542" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L542" t="n">
         <v>181</v>
@@ -27921,7 +27943,7 @@
         <v>580</v>
       </c>
       <c r="K543" t="n">
-        <v>-4</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L543" t="n">
         <v>181.1</v>
@@ -27972,7 +27994,7 @@
         <v>580</v>
       </c>
       <c r="K544" t="n">
-        <v>-8.333333333333332</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L544" t="n">
         <v>181.2</v>
@@ -28023,7 +28045,7 @@
         <v>580</v>
       </c>
       <c r="K545" t="n">
-        <v>-30</v>
+        <v>-25</v>
       </c>
       <c r="L545" t="n">
         <v>181.1</v>
@@ -28074,7 +28096,7 @@
         <v>580</v>
       </c>
       <c r="K546" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L546" t="n">
         <v>180.9</v>
@@ -28125,7 +28147,7 @@
         <v>581</v>
       </c>
       <c r="K547" t="n">
-        <v>-17.64705882352941</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L547" t="n">
         <v>180.7</v>
@@ -28176,7 +28198,7 @@
         <v>581</v>
       </c>
       <c r="K548" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L548" t="n">
         <v>180.3</v>
@@ -28227,7 +28249,7 @@
         <v>581</v>
       </c>
       <c r="K549" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L549" t="n">
         <v>180.1</v>
@@ -28278,7 +28300,7 @@
         <v>583</v>
       </c>
       <c r="K550" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L550" t="n">
         <v>179.6</v>
@@ -28329,7 +28351,7 @@
         <v>584</v>
       </c>
       <c r="K551" t="n">
-        <v>-17.64705882352941</v>
+        <v>-100</v>
       </c>
       <c r="L551" t="n">
         <v>179</v>
@@ -28380,7 +28402,7 @@
         <v>586</v>
       </c>
       <c r="K552" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L552" t="n">
         <v>178.8</v>
@@ -28431,7 +28453,7 @@
         <v>588</v>
       </c>
       <c r="K553" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>178.8</v>
@@ -28482,7 +28504,7 @@
         <v>589</v>
       </c>
       <c r="K554" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L554" t="n">
         <v>178.7</v>
@@ -28533,7 +28555,7 @@
         <v>590</v>
       </c>
       <c r="K555" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L555" t="n">
         <v>178.7</v>
@@ -28584,7 +28606,7 @@
         <v>591</v>
       </c>
       <c r="K556" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L556" t="n">
         <v>178.8</v>
@@ -28635,7 +28657,7 @@
         <v>593</v>
       </c>
       <c r="K557" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L557" t="n">
         <v>179.2</v>
@@ -28686,7 +28708,7 @@
         <v>593</v>
       </c>
       <c r="K558" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L558" t="n">
         <v>179.6</v>
@@ -28737,7 +28759,7 @@
         <v>594</v>
       </c>
       <c r="K559" t="n">
-        <v>5.88235294117647</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L559" t="n">
         <v>179.9</v>
@@ -28788,7 +28810,7 @@
         <v>594</v>
       </c>
       <c r="K560" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L560" t="n">
         <v>180.4</v>
@@ -28839,7 +28861,7 @@
         <v>595</v>
       </c>
       <c r="K561" t="n">
-        <v>5.88235294117647</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L561" t="n">
         <v>181.1</v>
@@ -28890,7 +28912,7 @@
         <v>601</v>
       </c>
       <c r="K562" t="n">
-        <v>42.85714285714285</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L562" t="n">
         <v>182.2</v>
@@ -28941,7 +28963,7 @@
         <v>601</v>
       </c>
       <c r="K563" t="n">
-        <v>42.85714285714285</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L563" t="n">
         <v>183.1</v>
@@ -28992,7 +29014,7 @@
         <v>605</v>
       </c>
       <c r="K564" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L564" t="n">
         <v>183.7</v>
@@ -29043,7 +29065,7 @@
         <v>606</v>
       </c>
       <c r="K565" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L565" t="n">
         <v>184.3</v>
@@ -29094,7 +29116,7 @@
         <v>607</v>
       </c>
       <c r="K566" t="n">
-        <v>25.92592592592592</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L566" t="n">
         <v>184.9</v>
@@ -29196,7 +29218,7 @@
         <v>612</v>
       </c>
       <c r="K568" t="n">
-        <v>41.93548387096774</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L568" t="n">
         <v>186.3</v>
@@ -29247,7 +29269,7 @@
         <v>614</v>
       </c>
       <c r="K569" t="n">
-        <v>45.45454545454545</v>
+        <v>60</v>
       </c>
       <c r="L569" t="n">
         <v>187.5</v>
@@ -29298,7 +29320,7 @@
         <v>617</v>
       </c>
       <c r="K570" t="n">
-        <v>41.17647058823529</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L570" t="n">
         <v>188.4</v>
@@ -29349,7 +29371,7 @@
         <v>621</v>
       </c>
       <c r="K571" t="n">
-        <v>51.35135135135135</v>
+        <v>30</v>
       </c>
       <c r="L571" t="n">
         <v>189.6</v>
@@ -29400,7 +29422,7 @@
         <v>623</v>
       </c>
       <c r="K572" t="n">
-        <v>51.35135135135135</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L572" t="n">
         <v>190.4</v>
@@ -29451,7 +29473,7 @@
         <v>623</v>
       </c>
       <c r="K573" t="n">
-        <v>48.57142857142857</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L573" t="n">
         <v>191.2</v>
@@ -29502,7 +29524,7 @@
         <v>624</v>
       </c>
       <c r="K574" t="n">
-        <v>54.28571428571428</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L574" t="n">
         <v>192.5</v>
@@ -29553,7 +29575,7 @@
         <v>626</v>
       </c>
       <c r="K575" t="n">
-        <v>55.55555555555556</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L575" t="n">
         <v>193.9</v>
@@ -29604,7 +29626,7 @@
         <v>628</v>
       </c>
       <c r="K576" t="n">
-        <v>45.94594594594595</v>
+        <v>50</v>
       </c>
       <c r="L576" t="n">
         <v>195</v>
@@ -29655,7 +29677,7 @@
         <v>629</v>
       </c>
       <c r="K577" t="n">
-        <v>44.44444444444444</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L577" t="n">
         <v>196.1</v>
@@ -29706,7 +29728,7 @@
         <v>629</v>
       </c>
       <c r="K578" t="n">
-        <v>44.44444444444444</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L578" t="n">
         <v>196.8</v>
@@ -29757,7 +29779,7 @@
         <v>631</v>
       </c>
       <c r="K579" t="n">
-        <v>40.54054054054054</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L579" t="n">
         <v>197.1</v>
@@ -29808,7 +29830,7 @@
         <v>635</v>
       </c>
       <c r="K580" t="n">
-        <v>26.82926829268293</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L580" t="n">
         <v>197.3</v>
@@ -29859,7 +29881,7 @@
         <v>637</v>
       </c>
       <c r="K581" t="n">
-        <v>19.04761904761905</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L581" t="n">
         <v>196.9</v>
@@ -29910,7 +29932,7 @@
         <v>638</v>
       </c>
       <c r="K582" t="n">
-        <v>8.108108108108109</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L582" t="n">
         <v>196.4</v>
@@ -29961,7 +29983,7 @@
         <v>642</v>
       </c>
       <c r="K583" t="n">
-        <v>17.07317073170732</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L583" t="n">
         <v>196.3</v>
@@ -30012,7 +30034,7 @@
         <v>645</v>
       </c>
       <c r="K584" t="n">
-        <v>20</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L584" t="n">
         <v>195.8</v>
@@ -30063,7 +30085,7 @@
         <v>646</v>
       </c>
       <c r="K585" t="n">
-        <v>15</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L585" t="n">
         <v>195</v>
@@ -30114,7 +30136,7 @@
         <v>646</v>
       </c>
       <c r="K586" t="n">
-        <v>12.82051282051282</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L586" t="n">
         <v>194.4</v>
@@ -30165,7 +30187,7 @@
         <v>647</v>
       </c>
       <c r="K587" t="n">
-        <v>7.692307692307693</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L587" t="n">
         <v>193.6</v>
@@ -30216,7 +30238,7 @@
         <v>649</v>
       </c>
       <c r="K588" t="n">
-        <v>2.702702702702703</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L588" t="n">
         <v>193</v>
@@ -30267,7 +30289,7 @@
         <v>653</v>
       </c>
       <c r="K589" t="n">
-        <v>7.692307692307693</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L589" t="n">
         <v>193</v>
@@ -30318,7 +30340,7 @@
         <v>654</v>
       </c>
       <c r="K590" t="n">
-        <v>13.51351351351351</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L590" t="n">
         <v>193.3</v>
@@ -30369,7 +30391,7 @@
         <v>656</v>
       </c>
       <c r="K591" t="n">
-        <v>-2.857142857142857</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L591" t="n">
         <v>193.6</v>
@@ -30420,7 +30442,7 @@
         <v>656</v>
       </c>
       <c r="K592" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L592" t="n">
         <v>193.8</v>
@@ -30471,7 +30493,7 @@
         <v>656</v>
       </c>
       <c r="K593" t="n">
-        <v>-9.090909090909092</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L593" t="n">
         <v>193.6</v>
@@ -30522,7 +30544,7 @@
         <v>661</v>
       </c>
       <c r="K594" t="n">
-        <v>2.702702702702703</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L594" t="n">
         <v>194.2</v>
@@ -30573,7 +30595,7 @@
         <v>661</v>
       </c>
       <c r="K595" t="n">
-        <v>-2.857142857142857</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L595" t="n">
         <v>194.9</v>
@@ -30624,7 +30646,7 @@
         <v>662</v>
       </c>
       <c r="K596" t="n">
-        <v>5.88235294117647</v>
+        <v>60</v>
       </c>
       <c r="L596" t="n">
         <v>195.7</v>
@@ -30675,7 +30697,7 @@
         <v>662</v>
       </c>
       <c r="K597" t="n">
-        <v>3.03030303030303</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L597" t="n">
         <v>196.6</v>
@@ -30726,7 +30748,7 @@
         <v>662</v>
       </c>
       <c r="K598" t="n">
-        <v>3.03030303030303</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L598" t="n">
         <v>197.3</v>
@@ -30777,7 +30799,7 @@
         <v>664</v>
       </c>
       <c r="K599" t="n">
-        <v>3.03030303030303</v>
+        <v>20</v>
       </c>
       <c r="L599" t="n">
         <v>197.4</v>
@@ -30828,7 +30850,7 @@
         <v>666</v>
       </c>
       <c r="K600" t="n">
-        <v>9.67741935483871</v>
+        <v>20</v>
       </c>
       <c r="L600" t="n">
         <v>197.4</v>
@@ -30879,7 +30901,7 @@
         <v>667</v>
       </c>
       <c r="K601" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L601" t="n">
         <v>197.7</v>
@@ -30930,7 +30952,7 @@
         <v>670</v>
       </c>
       <c r="K602" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L602" t="n">
         <v>197.7</v>
@@ -30981,7 +31003,7 @@
         <v>671</v>
       </c>
       <c r="K603" t="n">
-        <v>-10.3448275862069</v>
+        <v>-60</v>
       </c>
       <c r="L603" t="n">
         <v>197.6</v>
@@ -31032,7 +31054,7 @@
         <v>673</v>
       </c>
       <c r="K604" t="n">
-        <v>7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L604" t="n">
         <v>197.2</v>
@@ -31083,7 +31105,7 @@
         <v>675</v>
       </c>
       <c r="K605" t="n">
-        <v>3.448275862068965</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L605" t="n">
         <v>196.6</v>
@@ -31134,7 +31156,7 @@
         <v>676</v>
       </c>
       <c r="K606" t="n">
-        <v>0</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L606" t="n">
         <v>195.8</v>
@@ -31185,7 +31207,7 @@
         <v>676</v>
       </c>
       <c r="K607" t="n">
-        <v>3.448275862068965</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L607" t="n">
         <v>195</v>
@@ -31236,7 +31258,7 @@
         <v>678</v>
       </c>
       <c r="K608" t="n">
-        <v>3.448275862068965</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L608" t="n">
         <v>194.4</v>
@@ -31287,7 +31309,7 @@
         <v>678</v>
       </c>
       <c r="K609" t="n">
-        <v>-12</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L609" t="n">
         <v>194</v>
@@ -31338,7 +31360,7 @@
         <v>679</v>
       </c>
       <c r="K610" t="n">
-        <v>-12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L610" t="n">
         <v>193.7</v>
@@ -31389,7 +31411,7 @@
         <v>679</v>
       </c>
       <c r="K611" t="n">
-        <v>-4.347826086956522</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L611" t="n">
         <v>193.3</v>
@@ -31440,7 +31462,7 @@
         <v>681</v>
       </c>
       <c r="K612" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L612" t="n">
         <v>193.4</v>
@@ -31491,7 +31513,7 @@
         <v>682</v>
       </c>
       <c r="K613" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L613" t="n">
         <v>193.5</v>
@@ -31542,7 +31564,7 @@
         <v>683</v>
       </c>
       <c r="K614" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L614" t="n">
         <v>193.3</v>
@@ -31593,7 +31615,7 @@
         <v>686</v>
       </c>
       <c r="K615" t="n">
-        <v>-36</v>
+        <v>-20</v>
       </c>
       <c r="L615" t="n">
         <v>193</v>
@@ -31644,7 +31666,7 @@
         <v>689</v>
       </c>
       <c r="K616" t="n">
-        <v>-25.92592592592592</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L616" t="n">
         <v>193.1</v>
@@ -31695,7 +31717,7 @@
         <v>691</v>
       </c>
       <c r="K617" t="n">
-        <v>-31.03448275862069</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L617" t="n">
         <v>193</v>
@@ -31746,7 +31768,7 @@
         <v>691</v>
       </c>
       <c r="K618" t="n">
-        <v>-31.03448275862069</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L618" t="n">
         <v>192.7</v>
@@ -31797,7 +31819,7 @@
         <v>692</v>
       </c>
       <c r="K619" t="n">
-        <v>-28.57142857142857</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L619" t="n">
         <v>192.3</v>
@@ -31848,7 +31870,7 @@
         <v>695</v>
       </c>
       <c r="K620" t="n">
-        <v>-31.03448275862069</v>
+        <v>-37.5</v>
       </c>
       <c r="L620" t="n">
         <v>191.7</v>
@@ -31899,7 +31921,7 @@
         <v>695</v>
       </c>
       <c r="K621" t="n">
-        <v>-35.71428571428572</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L621" t="n">
         <v>191.1</v>
@@ -31950,7 +31972,7 @@
         <v>696</v>
       </c>
       <c r="K622" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L622" t="n">
         <v>190.4</v>
@@ -32001,7 +32023,7 @@
         <v>697</v>
       </c>
       <c r="K623" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L623" t="n">
         <v>189.7</v>
@@ -32052,7 +32074,7 @@
         <v>697</v>
       </c>
       <c r="K624" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L624" t="n">
         <v>189.1</v>
@@ -32103,7 +32125,7 @@
         <v>707</v>
       </c>
       <c r="K625" t="n">
-        <v>12.5</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L625" t="n">
         <v>189.8</v>
@@ -32154,7 +32176,7 @@
         <v>714</v>
       </c>
       <c r="K626" t="n">
-        <v>-5.263157894736842</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L626" t="n">
         <v>189.5</v>
@@ -32205,7 +32227,7 @@
         <v>714</v>
       </c>
       <c r="K627" t="n">
-        <v>-5.263157894736842</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L627" t="n">
         <v>189.4</v>
@@ -32256,7 +32278,7 @@
         <v>715</v>
       </c>
       <c r="K628" t="n">
-        <v>-13.51351351351351</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L628" t="n">
         <v>189.2</v>
@@ -32307,7 +32329,7 @@
         <v>716</v>
       </c>
       <c r="K629" t="n">
-        <v>-10.52631578947368</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L629" t="n">
         <v>189.2</v>
@@ -32358,7 +32380,7 @@
         <v>717</v>
       </c>
       <c r="K630" t="n">
-        <v>-10.52631578947368</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L630" t="n">
         <v>189.4</v>
@@ -32409,7 +32431,7 @@
         <v>718</v>
       </c>
       <c r="K631" t="n">
-        <v>-7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L631" t="n">
         <v>189.7</v>
@@ -32460,7 +32482,7 @@
         <v>719</v>
       </c>
       <c r="K632" t="n">
-        <v>-15.78947368421053</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L632" t="n">
         <v>189.8</v>
@@ -32511,7 +32533,7 @@
         <v>720</v>
       </c>
       <c r="K633" t="n">
-        <v>-15.78947368421053</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L633" t="n">
         <v>189.9</v>
@@ -32562,7 +32584,7 @@
         <v>722</v>
       </c>
       <c r="K634" t="n">
-        <v>-17.94871794871795</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L634" t="n">
         <v>189.8</v>
@@ -32613,7 +32635,7 @@
         <v>722</v>
       </c>
       <c r="K635" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L635" t="n">
         <v>188.7</v>
@@ -32664,7 +32686,7 @@
         <v>723</v>
       </c>
       <c r="K636" t="n">
-        <v>-23.52941176470588</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L636" t="n">
         <v>188.2</v>
@@ -32715,7 +32737,7 @@
         <v>724</v>
       </c>
       <c r="K637" t="n">
-        <v>-21.21212121212121</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L637" t="n">
         <v>187.6</v>
@@ -32766,7 +32788,7 @@
         <v>725</v>
       </c>
       <c r="K638" t="n">
-        <v>-23.52941176470588</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L638" t="n">
         <v>187</v>
@@ -32817,7 +32839,7 @@
         <v>729</v>
       </c>
       <c r="K639" t="n">
-        <v>-8.108108108108109</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L639" t="n">
         <v>186.7</v>
@@ -32868,7 +32890,7 @@
         <v>731</v>
       </c>
       <c r="K640" t="n">
-        <v>-5.555555555555555</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L640" t="n">
         <v>186.3</v>
@@ -32919,7 +32941,7 @@
         <v>733</v>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L641" t="n">
         <v>186</v>
@@ -32970,7 +32992,7 @@
         <v>734</v>
       </c>
       <c r="K642" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L642" t="n">
         <v>185.7</v>
@@ -33021,7 +33043,7 @@
         <v>741</v>
       </c>
       <c r="K643" t="n">
-        <v>13.63636363636363</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L643" t="n">
         <v>186.2</v>
@@ -33072,7 +33094,7 @@
         <v>748</v>
       </c>
       <c r="K644" t="n">
-        <v>-1.96078431372549</v>
+        <v>0</v>
       </c>
       <c r="L644" t="n">
         <v>186.2</v>
@@ -33123,7 +33145,7 @@
         <v>748</v>
       </c>
       <c r="K645" t="n">
-        <v>-26.82926829268293</v>
+        <v>4</v>
       </c>
       <c r="L645" t="n">
         <v>186.2</v>
@@ -33174,7 +33196,7 @@
         <v>749</v>
       </c>
       <c r="K646" t="n">
-        <v>-8.571428571428571</v>
+        <v>12</v>
       </c>
       <c r="L646" t="n">
         <v>186.4</v>
@@ -33225,7 +33247,7 @@
         <v>754</v>
       </c>
       <c r="K647" t="n">
-        <v>5</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L647" t="n">
         <v>187.2</v>
@@ -33276,7 +33298,7 @@
         <v>759</v>
       </c>
       <c r="K648" t="n">
-        <v>-4.545454545454546</v>
+        <v>0</v>
       </c>
       <c r="L648" t="n">
         <v>187.6</v>
@@ -33327,7 +33349,7 @@
         <v>761</v>
       </c>
       <c r="K649" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L649" t="n">
         <v>187.4</v>
@@ -33378,7 +33400,7 @@
         <v>762</v>
       </c>
       <c r="K650" t="n">
-        <v>-6.666666666666667</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L650" t="n">
         <v>187.5</v>
@@ -33429,7 +33451,7 @@
         <v>764</v>
       </c>
       <c r="K651" t="n">
-        <v>-4.347826086956522</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L651" t="n">
         <v>187.6</v>
@@ -33480,7 +33502,7 @@
         <v>764</v>
       </c>
       <c r="K652" t="n">
-        <v>-2.222222222222222</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L652" t="n">
         <v>187.8</v>
@@ -33531,7 +33553,7 @@
         <v>765</v>
       </c>
       <c r="K653" t="n">
-        <v>-2.222222222222222</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L653" t="n">
         <v>187.2</v>
@@ -33582,7 +33604,7 @@
         <v>767</v>
       </c>
       <c r="K654" t="n">
-        <v>6.666666666666667</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L654" t="n">
         <v>187.5</v>
@@ -33633,7 +33655,7 @@
         <v>768</v>
       </c>
       <c r="K655" t="n">
-        <v>8.695652173913043</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L655" t="n">
         <v>187.9</v>
@@ -33684,7 +33706,7 @@
         <v>769</v>
       </c>
       <c r="K656" t="n">
-        <v>8.695652173913043</v>
+        <v>-20</v>
       </c>
       <c r="L656" t="n">
         <v>188.1</v>
@@ -33735,7 +33757,7 @@
         <v>770</v>
       </c>
       <c r="K657" t="n">
-        <v>8.695652173913043</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L657" t="n">
         <v>187.7</v>
@@ -33786,7 +33808,7 @@
         <v>773</v>
       </c>
       <c r="K658" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L658" t="n">
         <v>188.1</v>
@@ -33837,7 +33859,7 @@
         <v>776</v>
       </c>
       <c r="K659" t="n">
-        <v>2.127659574468085</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L659" t="n">
         <v>188.4</v>
@@ -33888,7 +33910,7 @@
         <v>776</v>
       </c>
       <c r="K660" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L660" t="n">
         <v>188.6</v>
@@ -33939,7 +33961,7 @@
         <v>776</v>
       </c>
       <c r="K661" t="n">
-        <v>2.325581395348837</v>
+        <v>0</v>
       </c>
       <c r="L661" t="n">
         <v>188.6</v>
@@ -33990,7 +34012,7 @@
         <v>776</v>
       </c>
       <c r="K662" t="n">
-        <v>4.761904761904762</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L662" t="n">
         <v>188.6</v>
@@ -34041,7 +34063,7 @@
         <v>778</v>
       </c>
       <c r="K663" t="n">
-        <v>-8.108108108108109</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L663" t="n">
         <v>188.9</v>
@@ -34092,7 +34114,7 @@
         <v>780</v>
       </c>
       <c r="K664" t="n">
-        <v>6.25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L664" t="n">
         <v>188.8</v>
@@ -34143,7 +34165,7 @@
         <v>781</v>
       </c>
       <c r="K665" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L665" t="n">
         <v>188.7</v>
@@ -34194,7 +34216,7 @@
         <v>783</v>
       </c>
       <c r="K666" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L666" t="n">
         <v>188.5</v>
@@ -34245,7 +34267,7 @@
         <v>786</v>
       </c>
       <c r="K667" t="n">
-        <v>-6.25</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L667" t="n">
         <v>188.7</v>
@@ -34296,7 +34318,7 @@
         <v>786</v>
       </c>
       <c r="K668" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L668" t="n">
         <v>188.6</v>
@@ -34398,7 +34420,7 @@
         <v>786</v>
       </c>
       <c r="K670" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L670" t="n">
         <v>189</v>
@@ -34449,7 +34471,7 @@
         <v>786</v>
       </c>
       <c r="K671" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L671" t="n">
         <v>189.2</v>
@@ -34500,7 +34522,7 @@
         <v>787</v>
       </c>
       <c r="K672" t="n">
-        <v>4.347826086956522</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L672" t="n">
         <v>189.3</v>
@@ -34551,7 +34573,7 @@
         <v>792</v>
       </c>
       <c r="K673" t="n">
-        <v>25.92592592592592</v>
+        <v>50</v>
       </c>
       <c r="L673" t="n">
         <v>189.7</v>
@@ -34602,7 +34624,7 @@
         <v>794</v>
       </c>
       <c r="K674" t="n">
-        <v>25.92592592592592</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L674" t="n">
         <v>190.5</v>
@@ -34653,7 +34675,7 @@
         <v>795</v>
       </c>
       <c r="K675" t="n">
-        <v>25.92592592592592</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L675" t="n">
         <v>191.3</v>
@@ -34704,7 +34726,7 @@
         <v>795</v>
       </c>
       <c r="K676" t="n">
-        <v>30.76923076923077</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L676" t="n">
         <v>192.3</v>
@@ -34755,7 +34777,7 @@
         <v>799</v>
       </c>
       <c r="K677" t="n">
-        <v>17.24137931034483</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L677" t="n">
         <v>192.6</v>
@@ -34806,7 +34828,7 @@
         <v>802</v>
       </c>
       <c r="K678" t="n">
-        <v>17.24137931034483</v>
+        <v>37.5</v>
       </c>
       <c r="L678" t="n">
         <v>193.2</v>
@@ -34857,7 +34879,7 @@
         <v>802</v>
       </c>
       <c r="K679" t="n">
-        <v>30.76923076923077</v>
+        <v>37.5</v>
       </c>
       <c r="L679" t="n">
         <v>193.8</v>
@@ -34908,7 +34930,7 @@
         <v>803</v>
       </c>
       <c r="K680" t="n">
-        <v>33.33333333333333</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L680" t="n">
         <v>194.5</v>
@@ -34959,7 +34981,7 @@
         <v>804</v>
       </c>
       <c r="K681" t="n">
-        <v>28.57142857142857</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L681" t="n">
         <v>195.1</v>
@@ -35010,7 +35032,7 @@
         <v>807</v>
       </c>
       <c r="K682" t="n">
-        <v>16.12903225806452</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L682" t="n">
         <v>195.5</v>
@@ -35061,7 +35083,7 @@
         <v>808</v>
       </c>
       <c r="K683" t="n">
-        <v>13.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L683" t="n">
         <v>195.5</v>
@@ -35112,7 +35134,7 @@
         <v>808</v>
       </c>
       <c r="K684" t="n">
-        <v>21.42857142857143</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L684" t="n">
         <v>195.3</v>
@@ -35163,7 +35185,7 @@
         <v>809</v>
       </c>
       <c r="K685" t="n">
-        <v>14.28571428571428</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L685" t="n">
         <v>194.9</v>
@@ -35214,7 +35236,7 @@
         <v>809</v>
       </c>
       <c r="K686" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L686" t="n">
         <v>194.5</v>
@@ -35265,7 +35287,7 @@
         <v>810</v>
       </c>
       <c r="K687" t="n">
-        <v>8.333333333333332</v>
+        <v>-50</v>
       </c>
       <c r="L687" t="n">
         <v>194.4</v>
@@ -35316,7 +35338,7 @@
         <v>812</v>
       </c>
       <c r="K688" t="n">
-        <v>15.38461538461539</v>
+        <v>-20</v>
       </c>
       <c r="L688" t="n">
         <v>194.2</v>
@@ -35367,7 +35389,7 @@
         <v>814</v>
       </c>
       <c r="K689" t="n">
-        <v>7.142857142857142</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L689" t="n">
         <v>193.8</v>
@@ -35418,7 +35440,7 @@
         <v>818</v>
       </c>
       <c r="K690" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="L690" t="n">
         <v>193.7</v>
@@ -35469,7 +35491,7 @@
         <v>819</v>
       </c>
       <c r="K691" t="n">
-        <v>15.15151515151515</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L691" t="n">
         <v>193.6</v>
@@ -35520,7 +35542,7 @@
         <v>821</v>
       </c>
       <c r="K692" t="n">
-        <v>11.76470588235294</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L692" t="n">
         <v>193.6</v>
@@ -35622,7 +35644,7 @@
         <v>823</v>
       </c>
       <c r="K694" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L694" t="n">
         <v>193.5</v>
@@ -35673,7 +35695,7 @@
         <v>823</v>
       </c>
       <c r="K695" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L695" t="n">
         <v>193.5</v>
@@ -35724,7 +35746,7 @@
         <v>829</v>
       </c>
       <c r="K696" t="n">
-        <v>-29.41176470588236</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L696" t="n">
         <v>192.9</v>
@@ -35775,7 +35797,7 @@
         <v>830</v>
       </c>
       <c r="K697" t="n">
-        <v>-16.12903225806452</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L697" t="n">
         <v>192.5</v>
@@ -35826,7 +35848,7 @@
         <v>834</v>
       </c>
       <c r="K698" t="n">
-        <v>-37.5</v>
+        <v>-40</v>
       </c>
       <c r="L698" t="n">
         <v>191.5</v>
@@ -35877,7 +35899,7 @@
         <v>837</v>
       </c>
       <c r="K699" t="n">
-        <v>-25.71428571428571</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L699" t="n">
         <v>191</v>
@@ -35928,7 +35950,7 @@
         <v>838</v>
       </c>
       <c r="K700" t="n">
-        <v>-25.71428571428571</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L700" t="n">
         <v>190.2</v>
@@ -35979,7 +36001,7 @@
         <v>839</v>
       </c>
       <c r="K701" t="n">
-        <v>-25.71428571428571</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L701" t="n">
         <v>189.4</v>
@@ -36030,7 +36052,7 @@
         <v>840</v>
       </c>
       <c r="K702" t="n">
-        <v>-15.15151515151515</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L702" t="n">
         <v>188.9</v>
@@ -36081,7 +36103,7 @@
         <v>842</v>
       </c>
       <c r="K703" t="n">
-        <v>-23.52941176470588</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L703" t="n">
         <v>188.1</v>
@@ -36132,7 +36154,7 @@
         <v>843</v>
       </c>
       <c r="K704" t="n">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="L704" t="n">
         <v>187.5</v>
@@ -36183,7 +36205,7 @@
         <v>846</v>
       </c>
       <c r="K705" t="n">
-        <v>-8.108108108108109</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L705" t="n">
         <v>187.2</v>
@@ -36234,7 +36256,7 @@
         <v>849</v>
       </c>
       <c r="K706" t="n">
-        <v>-15</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L706" t="n">
         <v>187.2</v>
@@ -36285,7 +36307,7 @@
         <v>850</v>
       </c>
       <c r="K707" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L707" t="n">
         <v>187.2</v>
@@ -36336,7 +36358,7 @@
         <v>852</v>
       </c>
       <c r="K708" t="n">
-        <v>-20</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L708" t="n">
         <v>187.4</v>
@@ -36387,7 +36409,7 @@
         <v>852</v>
       </c>
       <c r="K709" t="n">
-        <v>-15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L709" t="n">
         <v>187.3</v>
@@ -36438,7 +36460,7 @@
         <v>853</v>
       </c>
       <c r="K710" t="n">
-        <v>-31.42857142857143</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L710" t="n">
         <v>187</v>
@@ -36489,7 +36511,7 @@
         <v>854</v>
       </c>
       <c r="K711" t="n">
-        <v>-25.71428571428571</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L711" t="n">
         <v>186.9</v>
@@ -36540,7 +36562,7 @@
         <v>855</v>
       </c>
       <c r="K712" t="n">
-        <v>-23.52941176470588</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L712" t="n">
         <v>186.6</v>
@@ -36591,7 +36613,7 @@
         <v>855</v>
       </c>
       <c r="K713" t="n">
-        <v>-27.27272727272727</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L713" t="n">
         <v>186.5</v>
@@ -36642,7 +36664,7 @@
         <v>856</v>
       </c>
       <c r="K714" t="n">
-        <v>-21.21212121212121</v>
+        <v>-40</v>
       </c>
       <c r="L714" t="n">
         <v>186.4</v>
@@ -36693,7 +36715,7 @@
         <v>857</v>
       </c>
       <c r="K715" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L715" t="n">
         <v>186.1</v>
@@ -36744,7 +36766,7 @@
         <v>857</v>
       </c>
       <c r="K716" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L716" t="n">
         <v>186.1</v>
@@ -36795,7 +36817,7 @@
         <v>857</v>
       </c>
       <c r="K717" t="n">
-        <v>-3.703703703703703</v>
+        <v>20</v>
       </c>
       <c r="L717" t="n">
         <v>186</v>
@@ -36846,7 +36868,7 @@
         <v>860</v>
       </c>
       <c r="K718" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L718" t="n">
         <v>185.8</v>
@@ -36897,7 +36919,7 @@
         <v>865</v>
       </c>
       <c r="K719" t="n">
-        <v>7.142857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L719" t="n">
         <v>186.1</v>
@@ -36948,7 +36970,7 @@
         <v>865</v>
       </c>
       <c r="K720" t="n">
-        <v>3.703703703703703</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L720" t="n">
         <v>186.5</v>
@@ -36999,7 +37021,7 @@
         <v>866</v>
       </c>
       <c r="K721" t="n">
-        <v>3.703703703703703</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L721" t="n">
         <v>186.7</v>
@@ -37050,7 +37072,7 @@
         <v>868</v>
       </c>
       <c r="K722" t="n">
-        <v>-7.142857142857142</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L722" t="n">
         <v>186.8</v>
@@ -37152,7 +37174,7 @@
         <v>870</v>
       </c>
       <c r="K724" t="n">
-        <v>3.703703703703703</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L724" t="n">
         <v>187.1</v>
@@ -37203,7 +37225,7 @@
         <v>872</v>
       </c>
       <c r="K725" t="n">
-        <v>-15.38461538461539</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L725" t="n">
         <v>187</v>
@@ -37254,7 +37276,7 @@
         <v>872</v>
       </c>
       <c r="K726" t="n">
-        <v>-4.347826086956522</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L726" t="n">
         <v>186.9</v>
@@ -37305,7 +37327,7 @@
         <v>873</v>
       </c>
       <c r="K727" t="n">
-        <v>-4.347826086956522</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L727" t="n">
         <v>186.9</v>
@@ -37356,7 +37378,7 @@
         <v>875</v>
       </c>
       <c r="K728" t="n">
-        <v>-4.347826086956522</v>
+        <v>-40</v>
       </c>
       <c r="L728" t="n">
         <v>187</v>
@@ -37407,7 +37429,7 @@
         <v>879</v>
       </c>
       <c r="K729" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L729" t="n">
         <v>187</v>
@@ -37458,7 +37480,7 @@
         <v>882</v>
       </c>
       <c r="K730" t="n">
-        <v>3.448275862068965</v>
+        <v>-12.5</v>
       </c>
       <c r="L730" t="n">
         <v>186.7</v>
@@ -37509,7 +37531,7 @@
         <v>883</v>
       </c>
       <c r="K731" t="n">
-        <v>-3.448275862068965</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L731" t="n">
         <v>186.4</v>
@@ -37560,7 +37582,7 @@
         <v>883</v>
       </c>
       <c r="K732" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L732" t="n">
         <v>186.3</v>
@@ -37611,7 +37633,7 @@
         <v>886</v>
       </c>
       <c r="K733" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L733" t="n">
         <v>186.5</v>

--- a/BackTest/2019-11-15 BackTest ITC.xlsx
+++ b/BackTest/2019-11-15 BackTest ITC.xlsx
@@ -451,20 +451,14 @@
         <v>153.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>153</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>153.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>152</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>153.7166666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>153</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>153.6833333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>154</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>153.6333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>153</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>153.6166666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>155</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>153.6166666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>154</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>153.6166666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>154</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>153.65</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>155</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>153.6333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>155</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>153.6666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>156</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>153.7166666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>158</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>153.7833333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>158</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>153.8333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>158</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>153.8333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>159</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>153.85</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>157</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>153.8666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>156</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1155,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1187,20 +1081,14 @@
         <v>153.9</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>155</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1235,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1267,20 +1151,14 @@
         <v>153.9333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>153</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1308,20 +1186,14 @@
         <v>153.95</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>154</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1349,20 +1221,14 @@
         <v>153.9666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>154</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1390,20 +1256,14 @@
         <v>154.0166666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>154</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1431,20 +1291,14 @@
         <v>154.05</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>155</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1472,20 +1326,14 @@
         <v>154.0666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>155</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1513,20 +1361,14 @@
         <v>154.0833333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>156</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1554,20 +1396,14 @@
         <v>154.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>155</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1595,20 +1431,14 @@
         <v>154.1333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>156</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1636,20 +1466,14 @@
         <v>154.2</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>156</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1677,20 +1501,14 @@
         <v>154.2166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>156</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1718,20 +1536,14 @@
         <v>154.2333333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>156</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1759,20 +1571,14 @@
         <v>154.2833333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>156</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1800,20 +1606,14 @@
         <v>154.3333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>156</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1841,20 +1641,14 @@
         <v>154.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>156</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1882,20 +1676,14 @@
         <v>154.4833333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>156</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1923,20 +1711,14 @@
         <v>154.55</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>156</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1964,20 +1746,14 @@
         <v>154.6</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>155</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2005,20 +1781,14 @@
         <v>154.6333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>155</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2046,20 +1816,14 @@
         <v>154.6833333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>154</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2087,20 +1851,14 @@
         <v>154.7666666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>155</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2128,20 +1886,14 @@
         <v>154.8</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>155</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2169,20 +1921,14 @@
         <v>154.8333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>154</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2210,20 +1956,14 @@
         <v>154.85</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>154</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2251,20 +1991,14 @@
         <v>154.85</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>153</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2292,20 +2026,14 @@
         <v>154.8666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>154</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2333,20 +2061,14 @@
         <v>154.8833333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>153</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2374,20 +2096,14 @@
         <v>154.9166666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>154</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2415,20 +2131,14 @@
         <v>154.9333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>155</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2456,20 +2166,14 @@
         <v>154.95</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>154</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2497,20 +2201,14 @@
         <v>154.9666666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>153</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2538,20 +2236,14 @@
         <v>155.0166666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>154</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2579,20 +2271,14 @@
         <v>155.0333333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>153</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2620,20 +2306,14 @@
         <v>154.9833333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>153</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2661,20 +2341,14 @@
         <v>154.9666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>153</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2702,20 +2376,14 @@
         <v>154.9333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>153</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2743,20 +2411,14 @@
         <v>154.9166666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>153</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2784,20 +2446,14 @@
         <v>154.9</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>153</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2825,20 +2481,14 @@
         <v>154.9</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>153</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2866,20 +2516,14 @@
         <v>154.9333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>155</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2907,20 +2551,14 @@
         <v>154.9666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>156</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2948,20 +2586,14 @@
         <v>155.0333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>157</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2989,20 +2621,14 @@
         <v>155.0833333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>156</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3030,20 +2656,14 @@
         <v>155.1333333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>157</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3071,20 +2691,14 @@
         <v>155.1833333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>156</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3112,20 +2726,14 @@
         <v>155.2166666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>157</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3153,20 +2761,14 @@
         <v>155.2166666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>155</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3194,20 +2796,14 @@
         <v>155.2333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>157</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3235,20 +2831,14 @@
         <v>155.2333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>157</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3276,20 +2866,14 @@
         <v>155.25</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>158</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3317,20 +2901,14 @@
         <v>155.2333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>157</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3358,20 +2936,14 @@
         <v>155.2</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>157</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3399,20 +2971,14 @@
         <v>155.1666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>157</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3440,20 +3006,14 @@
         <v>155.1333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>157</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3481,20 +3041,14 @@
         <v>155.1333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>157</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3522,20 +3076,14 @@
         <v>155.1333333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>157</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3563,20 +3111,14 @@
         <v>155.1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>155</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3604,20 +3146,14 @@
         <v>155.0333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>155</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3645,20 +3181,14 @@
         <v>155.0333333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>154</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3686,20 +3216,14 @@
         <v>155.0833333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>157</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3727,20 +3251,14 @@
         <v>155.1333333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>158</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3768,20 +3286,14 @@
         <v>155.2</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>158</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3809,20 +3321,14 @@
         <v>155.2833333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>159</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3850,20 +3356,14 @@
         <v>155.3333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>159</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3898,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3937,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3976,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4054,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4171,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4210,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4288,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4327,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4366,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4405,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4483,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4522,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4561,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4600,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4639,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4717,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4756,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4795,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4834,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4912,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4951,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4990,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5029,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5068,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5146,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5185,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5263,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5341,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5380,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5419,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5458,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5497,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5575,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5614,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5653,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5692,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5770,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5809,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5848,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5887,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5926,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5965,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6004,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6043,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6082,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6121,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6199,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6238,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6277,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6316,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6355,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6394,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6433,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6472,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6511,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6628,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6667,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6706,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6745,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6784,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6823,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6862,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6901,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6940,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6979,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7057,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7096,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7135,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7174,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7213,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7252,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7291,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7330,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7369,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7408,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7486,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7525,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7564,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7603,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7642,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7681,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7720,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7759,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7798,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7837,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7915,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7954,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8032,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8071,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8110,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8149,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8188,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8227,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8266,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8344,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8383,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8422,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8461,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8500,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8539,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8578,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8617,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8656,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8695,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8773,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8812,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8851,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8890,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8929,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8968,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9007,11 +7983,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9046,11 +8018,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9085,11 +8053,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9124,11 +8088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +8123,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9202,11 +8158,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9241,11 +8193,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9280,11 +8228,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9319,11 +8263,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9358,11 +8298,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9397,11 +8333,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +8368,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9475,11 +8403,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9514,11 +8438,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9553,11 +8473,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +8508,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9631,11 +8543,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9670,11 +8578,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9709,11 +8613,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9748,11 +8648,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9787,11 +8683,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9826,11 +8718,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9865,11 +8753,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9904,11 +8788,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9943,11 +8823,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9982,11 +8858,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +8893,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10060,11 +8928,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10099,11 +8963,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10138,11 +8998,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10177,11 +9033,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10216,11 +9068,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10255,11 +9103,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10294,11 +9138,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10333,11 +9173,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10372,11 +9208,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10411,11 +9243,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +9278,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10489,11 +9313,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10528,11 +9348,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10567,11 +9383,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10606,11 +9418,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10645,11 +9453,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10684,11 +9488,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10723,11 +9523,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10762,11 +9558,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10801,11 +9593,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10840,11 +9628,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +9663,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10918,11 +9698,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10957,11 +9733,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10996,11 +9768,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11035,11 +9803,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11074,11 +9838,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11113,11 +9873,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11152,11 +9908,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11191,11 +9943,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11230,11 +9978,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11269,11 +10013,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +10048,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11347,11 +10083,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11386,11 +10118,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11425,11 +10153,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11464,11 +10188,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11503,11 +10223,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11542,11 +10258,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11581,11 +10293,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11620,11 +10328,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11659,11 +10363,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11698,11 +10398,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +10433,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11776,11 +10468,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11815,11 +10503,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11854,11 +10538,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11893,11 +10573,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11932,11 +10608,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11971,11 +10643,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -12010,11 +10678,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -12049,11 +10713,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -12088,11 +10748,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -12127,11 +10783,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +10818,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12205,11 +10853,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12244,11 +10888,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12283,11 +10923,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12322,11 +10958,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12361,11 +10993,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12400,11 +11028,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12439,11 +11063,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12478,11 +11098,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12517,11 +11133,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12556,11 +11168,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +11203,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12634,11 +11238,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12673,11 +11273,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12712,11 +11308,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12751,11 +11343,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12790,11 +11378,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12829,11 +11413,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12868,11 +11448,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12907,11 +11483,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12946,11 +11518,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12985,11 +11553,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +11588,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -13063,11 +11623,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13102,11 +11658,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -13141,11 +11693,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -13180,11 +11728,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13219,11 +11763,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13258,11 +11798,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13297,11 +11833,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13336,11 +11868,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13375,11 +11903,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13414,11 +11938,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +11973,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13492,11 +12008,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13531,11 +12043,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13570,11 +12078,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13609,11 +12113,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13648,11 +12148,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13687,11 +12183,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13726,11 +12218,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13765,11 +12253,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13804,11 +12288,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13843,11 +12323,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +12358,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13921,11 +12393,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13960,11 +12428,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13999,11 +12463,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -14038,11 +12498,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -14077,11 +12533,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -14116,11 +12568,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -14155,11 +12603,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -14194,11 +12638,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -14233,11 +12673,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -14272,11 +12708,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +12743,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14350,11 +12778,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14389,11 +12813,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14428,11 +12848,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14467,11 +12883,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14506,11 +12918,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14545,11 +12953,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14584,11 +12988,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14623,11 +13023,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14662,11 +13058,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14701,11 +13093,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +13128,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14775,16 +13159,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
+      <c r="M365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -14917,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
@@ -14952,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
@@ -17504,14 +15886,20 @@
         <v>182.5333333333333</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>173</v>
+      </c>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17539,14 +15927,20 @@
         <v>182.3</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>172</v>
+      </c>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17574,14 +15968,20 @@
         <v>182.0833333333333</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>172</v>
+      </c>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17609,14 +16009,20 @@
         <v>181.8666666666667</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>173</v>
+      </c>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17644,14 +16050,20 @@
         <v>181.6166666666667</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>173</v>
+      </c>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17679,14 +16091,20 @@
         <v>181.35</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>173</v>
+      </c>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17714,14 +16132,20 @@
         <v>181.1333333333333</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>172</v>
+      </c>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17749,14 +16173,20 @@
         <v>180.9166666666667</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>174</v>
+      </c>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17791,7 +16221,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17826,7 +16260,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17861,7 +16299,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17896,7 +16338,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17931,7 +16377,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17966,7 +16416,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -18001,7 +16455,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -18036,7 +16494,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -18071,7 +16533,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -18106,7 +16572,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -18141,7 +16611,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +16650,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18211,7 +16689,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18246,7 +16728,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18281,7 +16767,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18316,7 +16806,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18351,7 +16845,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18386,7 +16884,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18421,7 +16923,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18456,7 +16962,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18491,7 +17001,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18526,7 +17040,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18561,7 +17079,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18596,7 +17118,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18631,7 +17157,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18666,7 +17196,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18701,7 +17235,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18736,7 +17274,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18771,7 +17313,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18806,7 +17352,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18841,7 +17391,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18876,7 +17430,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18911,7 +17469,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18946,7 +17508,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18981,7 +17547,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -19016,7 +17586,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -19051,7 +17625,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -19086,7 +17664,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -19121,7 +17703,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -19156,7 +17742,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -19191,7 +17781,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -19226,7 +17820,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19261,7 +17859,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -19296,7 +17898,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19331,7 +17937,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19366,7 +17976,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19401,7 +18015,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19436,7 +18054,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19471,7 +18093,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19506,7 +18132,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19541,7 +18171,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19576,7 +18210,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19611,7 +18249,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19646,7 +18288,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19681,7 +18327,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19716,7 +18366,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19751,7 +18405,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19786,7 +18444,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19821,7 +18483,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19856,7 +18522,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19891,7 +18561,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19926,7 +18600,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19961,7 +18639,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19996,7 +18678,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -20031,7 +18717,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -20066,7 +18756,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -20101,7 +18795,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -20136,7 +18834,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -20171,7 +18873,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20206,7 +18912,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20241,7 +18951,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20276,7 +18990,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20311,7 +19029,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20346,7 +19068,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20381,7 +19107,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20416,7 +19146,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20451,7 +19185,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +19224,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20521,7 +19263,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20556,7 +19302,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20591,7 +19341,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20626,7 +19380,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20661,7 +19419,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20696,7 +19458,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20731,7 +19497,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20766,7 +19536,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20801,7 +19575,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20836,7 +19614,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20871,7 +19653,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20906,7 +19692,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20941,7 +19731,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20976,7 +19770,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -21011,7 +19809,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -21046,7 +19848,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -21081,7 +19887,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -21116,7 +19926,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -21151,7 +19965,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21186,7 +20004,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21221,7 +20043,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21256,7 +20082,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21291,7 +20121,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21326,7 +20160,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21361,7 +20199,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21396,7 +20238,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21431,7 +20277,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21466,7 +20316,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21501,7 +20355,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21536,7 +20394,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21571,7 +20433,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21606,7 +20472,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21641,7 +20511,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21676,7 +20550,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21711,7 +20589,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21746,7 +20628,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21781,7 +20667,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21816,7 +20706,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21851,7 +20745,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21886,7 +20784,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21921,7 +20823,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21956,7 +20862,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21991,7 +20901,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -22026,7 +20940,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -22061,7 +20979,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -22092,14 +21014,16 @@
         <v>0</v>
       </c>
       <c r="I574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
-      <c r="M574" t="n">
-        <v>1</v>
-      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -22127,7 +21051,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
@@ -22197,7 +21121,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
@@ -22232,7 +21156,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>

--- a/BackTest/2019-11-15 BackTest ITC.xlsx
+++ b/BackTest/2019-11-15 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>320580.2848370376</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>320580.2848370376</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>158</v>
@@ -521,7 +521,7 @@
         <v>319073.4574370376</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>158</v>
@@ -562,7 +562,7 @@
         <v>319073.4574370376</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>156</v>
@@ -603,7 +603,7 @@
         <v>319073.4574370376</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>156</v>
@@ -644,7 +644,7 @@
         <v>309832.1622370376</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>156</v>
@@ -685,7 +685,7 @@
         <v>312267.1912370376</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>155</v>
@@ -726,7 +726,7 @@
         <v>307935.6310370376</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>156</v>
@@ -767,7 +767,7 @@
         <v>311314.0429370376</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>155</v>
@@ -808,7 +808,7 @@
         <v>311199.0295370376</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>157</v>
@@ -849,9 +849,11 @@
         <v>311199.0295370376</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>156</v>
+      </c>
       <c r="J12" t="n">
         <v>158</v>
       </c>
@@ -888,9 +890,11 @@
         <v>308848.3312370376</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>156</v>
+      </c>
       <c r="J13" t="n">
         <v>158</v>
       </c>
@@ -927,9 +931,11 @@
         <v>320258.3312370376</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>155</v>
+      </c>
       <c r="J14" t="n">
         <v>158</v>
       </c>
@@ -966,9 +972,11 @@
         <v>320508.3312370376</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>156</v>
+      </c>
       <c r="J15" t="n">
         <v>158</v>
       </c>
@@ -1005,9 +1013,11 @@
         <v>318087.2887370376</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>157</v>
+      </c>
       <c r="J16" t="n">
         <v>158</v>
       </c>
@@ -1044,9 +1054,11 @@
         <v>326753.4384370376</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>155</v>
+      </c>
       <c r="J17" t="n">
         <v>158</v>
       </c>
@@ -1083,9 +1095,11 @@
         <v>323803.4864370376</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>156</v>
+      </c>
       <c r="J18" t="n">
         <v>158</v>
       </c>
@@ -1122,9 +1136,11 @@
         <v>323822.9420370376</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>155</v>
+      </c>
       <c r="J19" t="n">
         <v>158</v>
       </c>
@@ -1161,9 +1177,11 @@
         <v>321219.7161370376</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>156</v>
+      </c>
       <c r="J20" t="n">
         <v>158</v>
       </c>
@@ -1200,9 +1218,11 @@
         <v>311445.2394370376</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>155</v>
+      </c>
       <c r="J21" t="n">
         <v>158</v>
       </c>
@@ -1239,9 +1259,11 @@
         <v>311445.2394370376</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>153</v>
+      </c>
       <c r="J22" t="n">
         <v>158</v>
       </c>
@@ -1278,9 +1300,11 @@
         <v>311445.2394370376</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>153</v>
+      </c>
       <c r="J23" t="n">
         <v>158</v>
       </c>
@@ -1317,9 +1341,11 @@
         <v>302330.8755370376</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>153</v>
+      </c>
       <c r="J24" t="n">
         <v>158</v>
       </c>
@@ -1356,9 +1382,11 @@
         <v>310474.2611370376</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>152</v>
+      </c>
       <c r="J25" t="n">
         <v>158</v>
       </c>
@@ -1395,9 +1423,11 @@
         <v>311126.2284370376</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>153</v>
+      </c>
       <c r="J26" t="n">
         <v>158</v>
       </c>
@@ -1434,9 +1464,11 @@
         <v>311262.4572370376</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>154</v>
+      </c>
       <c r="J27" t="n">
         <v>158</v>
       </c>
@@ -1473,9 +1505,11 @@
         <v>311262.4572370376</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>155</v>
+      </c>
       <c r="J28" t="n">
         <v>158</v>
       </c>
@@ -1512,9 +1546,11 @@
         <v>300000.5040370376</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>155</v>
+      </c>
       <c r="J29" t="n">
         <v>158</v>
       </c>
@@ -1551,9 +1587,11 @@
         <v>292054.1263370376</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>154</v>
+      </c>
       <c r="J30" t="n">
         <v>158</v>
       </c>
@@ -1590,9 +1628,11 @@
         <v>293602.7080370376</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>151</v>
+      </c>
       <c r="J31" t="n">
         <v>158</v>
       </c>
@@ -1629,9 +1669,11 @@
         <v>293605.9339370376</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>154</v>
+      </c>
       <c r="J32" t="n">
         <v>158</v>
       </c>
@@ -1668,9 +1710,11 @@
         <v>290670.1276370376</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>155</v>
+      </c>
       <c r="J33" t="n">
         <v>158</v>
       </c>
@@ -1707,9 +1751,11 @@
         <v>290670.1276370376</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>153</v>
+      </c>
       <c r="J34" t="n">
         <v>158</v>
       </c>
@@ -1746,9 +1792,11 @@
         <v>290666.8381370376</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>153</v>
+      </c>
       <c r="J35" t="n">
         <v>158</v>
       </c>
@@ -1785,9 +1833,11 @@
         <v>289759.1760370376</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>152</v>
+      </c>
       <c r="J36" t="n">
         <v>158</v>
       </c>
@@ -1824,9 +1874,11 @@
         <v>289759.1760370376</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>151</v>
+      </c>
       <c r="J37" t="n">
         <v>158</v>
       </c>
@@ -1863,7 +1915,7 @@
         <v>292571.9476370375</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>151</v>
@@ -1904,7 +1956,7 @@
         <v>292571.9476370375</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>153</v>
@@ -1945,7 +1997,7 @@
         <v>292264.5210370375</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>153</v>
@@ -1986,7 +2038,7 @@
         <v>284319.2780370375</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>151</v>
@@ -2027,7 +2079,7 @@
         <v>300750.9205370375</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>150</v>
@@ -2068,7 +2120,7 @@
         <v>300744.3415370375</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>153</v>
@@ -2109,7 +2161,7 @@
         <v>300744.3415370375</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>152</v>
@@ -2150,7 +2202,7 @@
         <v>302063.1177370375</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>152</v>
@@ -2191,9 +2243,11 @@
         <v>302063.1177370375</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>153</v>
+      </c>
       <c r="J46" t="n">
         <v>158</v>
       </c>
@@ -2230,9 +2284,11 @@
         <v>298114.7062370375</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>153</v>
+      </c>
       <c r="J47" t="n">
         <v>158</v>
       </c>
@@ -2269,7 +2325,7 @@
         <v>298114.7062370375</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>152</v>
@@ -2310,7 +2366,7 @@
         <v>298114.7062370375</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>152</v>
@@ -2351,7 +2407,7 @@
         <v>299716.7062370375</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>152</v>
@@ -2392,7 +2448,7 @@
         <v>299599.8623370376</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>153</v>
@@ -2433,7 +2489,7 @@
         <v>293632.8313370376</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>152</v>
@@ -2474,7 +2530,7 @@
         <v>299774.1344370376</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>151</v>
@@ -2515,7 +2571,7 @@
         <v>328017.1026370376</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>152</v>
@@ -2556,7 +2612,7 @@
         <v>323457.7523370376</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>156</v>
@@ -2597,9 +2653,11 @@
         <v>330680.3164370376</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>154</v>
+      </c>
       <c r="J56" t="n">
         <v>158</v>
       </c>
@@ -2636,9 +2694,11 @@
         <v>330558.8742370376</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>155</v>
+      </c>
       <c r="J57" t="n">
         <v>158</v>
       </c>
@@ -2675,9 +2735,11 @@
         <v>330558.8742370376</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>154</v>
+      </c>
       <c r="J58" t="n">
         <v>158</v>
       </c>
@@ -2714,9 +2776,11 @@
         <v>330558.8742370376</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>154</v>
+      </c>
       <c r="J59" t="n">
         <v>158</v>
       </c>
@@ -2753,9 +2817,11 @@
         <v>322599.8742370376</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>154</v>
+      </c>
       <c r="J60" t="n">
         <v>158</v>
       </c>
@@ -2792,9 +2858,11 @@
         <v>325863.3381370376</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>153</v>
+      </c>
       <c r="J61" t="n">
         <v>158</v>
       </c>
@@ -2831,7 +2899,7 @@
         <v>320661.0099370376</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>154</v>
@@ -2872,7 +2940,7 @@
         <v>321624.9354370376</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>152</v>
@@ -2913,7 +2981,7 @@
         <v>324202.8251370376</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>153</v>
@@ -2954,7 +3022,7 @@
         <v>320254.3797370376</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>154</v>
@@ -2995,7 +3063,7 @@
         <v>320258.3797370376</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>153</v>
@@ -3036,7 +3104,7 @@
         <v>320258.3797370376</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>155</v>
@@ -3077,7 +3145,7 @@
         <v>323392.7941370376</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>155</v>
@@ -3118,9 +3186,11 @@
         <v>330773.8554727064</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>156</v>
+      </c>
       <c r="J69" t="n">
         <v>158</v>
       </c>
@@ -3157,9 +3227,11 @@
         <v>329523.8554727064</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>157</v>
+      </c>
       <c r="J70" t="n">
         <v>158</v>
       </c>
@@ -3196,9 +3268,11 @@
         <v>439715.2348727064</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>156</v>
+      </c>
       <c r="J71" t="n">
         <v>158</v>
       </c>
@@ -3235,9 +3309,11 @@
         <v>450554.5928727064</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>158</v>
+      </c>
       <c r="J72" t="n">
         <v>158</v>
       </c>
@@ -3469,9 +3545,11 @@
         <v>360097.8739727063</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>157</v>
+      </c>
       <c r="J78" t="n">
         <v>158</v>
       </c>
@@ -3508,9 +3586,11 @@
         <v>356160.1644727063</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>159</v>
+      </c>
       <c r="J79" t="n">
         <v>158</v>
       </c>
@@ -3547,9 +3627,11 @@
         <v>356160.1644727063</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>154</v>
+      </c>
       <c r="J80" t="n">
         <v>158</v>
       </c>
@@ -3586,9 +3668,11 @@
         <v>388231.4906727063</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>154</v>
+      </c>
       <c r="J81" t="n">
         <v>158</v>
       </c>
@@ -3625,9 +3709,11 @@
         <v>384467.4906727063</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>156</v>
+      </c>
       <c r="J82" t="n">
         <v>158</v>
       </c>
@@ -3664,9 +3750,11 @@
         <v>384467.4906727063</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>154</v>
+      </c>
       <c r="J83" t="n">
         <v>158</v>
       </c>
@@ -3703,9 +3791,11 @@
         <v>385010.3384727063</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>154</v>
+      </c>
       <c r="J84" t="n">
         <v>158</v>
       </c>
@@ -3742,9 +3832,11 @@
         <v>385010.3384727063</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>155</v>
+      </c>
       <c r="J85" t="n">
         <v>158</v>
       </c>
@@ -3781,9 +3873,11 @@
         <v>385010.3384727063</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>155</v>
+      </c>
       <c r="J86" t="n">
         <v>158</v>
       </c>
@@ -3820,9 +3914,11 @@
         <v>386013.5003727063</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>155</v>
+      </c>
       <c r="J87" t="n">
         <v>158</v>
       </c>
@@ -3859,7 +3955,7 @@
         <v>386013.5003727063</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>156</v>
@@ -3900,9 +3996,11 @@
         <v>386013.5003727063</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>156</v>
+      </c>
       <c r="J89" t="n">
         <v>158</v>
       </c>
@@ -3939,9 +4037,11 @@
         <v>383603.8710727064</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>156</v>
+      </c>
       <c r="J90" t="n">
         <v>158</v>
       </c>
@@ -3978,7 +4078,7 @@
         <v>383603.8710727064</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>155</v>
@@ -4019,9 +4119,11 @@
         <v>383723.4517727064</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>155</v>
+      </c>
       <c r="J92" t="n">
         <v>158</v>
       </c>
@@ -4058,7 +4160,7 @@
         <v>383723.4517727064</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>156</v>
@@ -4099,9 +4201,11 @@
         <v>383723.4517727064</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>156</v>
+      </c>
       <c r="J94" t="n">
         <v>158</v>
       </c>
@@ -4138,9 +4242,11 @@
         <v>383723.4517727064</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>156</v>
+      </c>
       <c r="J95" t="n">
         <v>158</v>
       </c>
@@ -4177,9 +4283,11 @@
         <v>383723.4517727064</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>156</v>
+      </c>
       <c r="J96" t="n">
         <v>158</v>
       </c>
@@ -4216,9 +4324,11 @@
         <v>377165.1627727064</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>156</v>
+      </c>
       <c r="J97" t="n">
         <v>158</v>
       </c>
@@ -4255,9 +4365,11 @@
         <v>388128.0427727064</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>155</v>
+      </c>
       <c r="J98" t="n">
         <v>158</v>
       </c>
@@ -4294,9 +4406,11 @@
         <v>383870.0427727064</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>156</v>
+      </c>
       <c r="J99" t="n">
         <v>158</v>
       </c>
@@ -4333,9 +4447,11 @@
         <v>381625.3179727063</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>155</v>
+      </c>
       <c r="J100" t="n">
         <v>158</v>
       </c>
@@ -4372,9 +4488,11 @@
         <v>383754.3179727063</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>154</v>
+      </c>
       <c r="J101" t="n">
         <v>158</v>
       </c>
@@ -4411,9 +4529,11 @@
         <v>383754.3179727063</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>155</v>
+      </c>
       <c r="J102" t="n">
         <v>158</v>
       </c>
@@ -4450,9 +4570,11 @@
         <v>374045.2151727063</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>155</v>
+      </c>
       <c r="J103" t="n">
         <v>158</v>
       </c>
@@ -4489,9 +4611,11 @@
         <v>366723.7948727063</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>154</v>
+      </c>
       <c r="J104" t="n">
         <v>158</v>
       </c>
@@ -4528,9 +4652,11 @@
         <v>366723.7948727063</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>153</v>
+      </c>
       <c r="J105" t="n">
         <v>158</v>
       </c>
@@ -4567,9 +4693,11 @@
         <v>367828.2201727064</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>153</v>
+      </c>
       <c r="J106" t="n">
         <v>158</v>
       </c>
@@ -4606,9 +4734,11 @@
         <v>367664.2366727064</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>154</v>
+      </c>
       <c r="J107" t="n">
         <v>158</v>
       </c>
@@ -4645,7 +4775,7 @@
         <v>367889.9590727064</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>153</v>
@@ -4686,7 +4816,7 @@
         <v>361989.9590727064</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>154</v>
@@ -4727,7 +4857,7 @@
         <v>364219.7065727064</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>153</v>
@@ -4768,7 +4898,7 @@
         <v>364079.9508727064</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>154</v>
@@ -4809,7 +4939,7 @@
         <v>364383.7478727064</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>153</v>
@@ -4850,7 +4980,7 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>154</v>
@@ -4891,7 +5021,7 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>153</v>
@@ -4932,9 +5062,11 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>153</v>
+      </c>
       <c r="J115" t="n">
         <v>158</v>
       </c>
@@ -4971,9 +5103,11 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>153</v>
+      </c>
       <c r="J116" t="n">
         <v>158</v>
       </c>
@@ -5010,9 +5144,11 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>153</v>
+      </c>
       <c r="J117" t="n">
         <v>158</v>
       </c>
@@ -5049,9 +5185,11 @@
         <v>364130.3684727065</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>153</v>
+      </c>
       <c r="J118" t="n">
         <v>158</v>
       </c>
@@ -5088,9 +5226,11 @@
         <v>368067.3196727065</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>153</v>
+      </c>
       <c r="J119" t="n">
         <v>158</v>
       </c>
@@ -5127,9 +5267,11 @@
         <v>368354.2867727065</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>154</v>
+      </c>
       <c r="J120" t="n">
         <v>158</v>
       </c>
@@ -5166,9 +5308,11 @@
         <v>375834.2867727065</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>155</v>
+      </c>
       <c r="J121" t="n">
         <v>158</v>
       </c>
@@ -5205,9 +5349,11 @@
         <v>375834.2867727065</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>156</v>
+      </c>
       <c r="J122" t="n">
         <v>158</v>
       </c>
@@ -5244,9 +5390,11 @@
         <v>375834.2867727065</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>156</v>
+      </c>
       <c r="J123" t="n">
         <v>158</v>
       </c>
@@ -5283,9 +5431,11 @@
         <v>382306.0758727065</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>156</v>
+      </c>
       <c r="J124" t="n">
         <v>158</v>
       </c>
@@ -5322,9 +5472,11 @@
         <v>380525.0758727065</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>157</v>
+      </c>
       <c r="J125" t="n">
         <v>158</v>
       </c>
@@ -5361,9 +5513,11 @@
         <v>384955.9473727065</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>156</v>
+      </c>
       <c r="J126" t="n">
         <v>158</v>
       </c>
@@ -5400,9 +5554,11 @@
         <v>377753.4311727065</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>157</v>
+      </c>
       <c r="J127" t="n">
         <v>158</v>
       </c>
@@ -5439,9 +5595,11 @@
         <v>381753.4311727065</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>155</v>
+      </c>
       <c r="J128" t="n">
         <v>158</v>
       </c>
@@ -5478,9 +5636,11 @@
         <v>381753.4311727065</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>157</v>
+      </c>
       <c r="J129" t="n">
         <v>158</v>
       </c>
@@ -5517,9 +5677,11 @@
         <v>381753.4311727065</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>157</v>
+      </c>
       <c r="J130" t="n">
         <v>158</v>
       </c>
@@ -5556,7 +5718,7 @@
         <v>381753.4311727065</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>157</v>
@@ -5597,9 +5759,11 @@
         <v>381753.4311727065</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>157</v>
+      </c>
       <c r="J132" t="n">
         <v>158</v>
       </c>
@@ -5636,9 +5800,11 @@
         <v>381753.4311727065</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>157</v>
+      </c>
       <c r="J133" t="n">
         <v>158</v>
       </c>
@@ -5675,7 +5841,7 @@
         <v>381753.4311727065</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>157</v>
@@ -5716,7 +5882,7 @@
         <v>381753.4311727065</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>157</v>
@@ -5757,7 +5923,7 @@
         <v>381497.2942727065</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>157</v>
@@ -5798,7 +5964,7 @@
         <v>375172.3302727065</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>156</v>
@@ -5839,7 +6005,7 @@
         <v>375172.3302727065</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>155</v>
@@ -5880,9 +6046,11 @@
         <v>375067.0222727065</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>155</v>
+      </c>
       <c r="J139" t="n">
         <v>158</v>
       </c>
@@ -5919,9 +6087,11 @@
         <v>383691.0265727065</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>154</v>
+      </c>
       <c r="J140" t="n">
         <v>158</v>
       </c>
@@ -5958,9 +6128,11 @@
         <v>389567.0265727065</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>157</v>
+      </c>
       <c r="J141" t="n">
         <v>158</v>
       </c>
@@ -5997,9 +6169,11 @@
         <v>389311.0265727065</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>159</v>
+      </c>
       <c r="J142" t="n">
         <v>158</v>
       </c>
@@ -6036,7 +6210,7 @@
         <v>389567.0265727065</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>158</v>
@@ -6077,9 +6251,11 @@
         <v>382207.0265727065</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>159</v>
+      </c>
       <c r="J144" t="n">
         <v>158</v>
       </c>
@@ -6116,9 +6292,11 @@
         <v>382207.0265727065</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>158</v>
+      </c>
       <c r="J145" t="n">
         <v>158</v>
       </c>
@@ -6155,9 +6333,11 @@
         <v>394841.6562727065</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>158</v>
+      </c>
       <c r="J146" t="n">
         <v>158</v>
       </c>
@@ -6194,9 +6374,11 @@
         <v>407776.6757727065</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>159</v>
+      </c>
       <c r="J147" t="n">
         <v>158</v>
       </c>
@@ -6233,9 +6415,11 @@
         <v>407346.9104727065</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>160</v>
+      </c>
       <c r="J148" t="n">
         <v>158</v>
       </c>
@@ -6272,9 +6456,11 @@
         <v>406869.1594727065</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>159</v>
+      </c>
       <c r="J149" t="n">
         <v>158</v>
       </c>
@@ -6311,9 +6497,11 @@
         <v>406869.1594727065</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>158</v>
+      </c>
       <c r="J150" t="n">
         <v>158</v>
       </c>
@@ -6350,9 +6538,11 @@
         <v>425572.3966727065</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>158</v>
+      </c>
       <c r="J151" t="n">
         <v>158</v>
       </c>
@@ -6389,9 +6579,11 @@
         <v>431847.3081727065</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>160</v>
+      </c>
       <c r="J152" t="n">
         <v>158</v>
       </c>
@@ -6428,9 +6620,11 @@
         <v>431847.3081727065</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>161</v>
+      </c>
       <c r="J153" t="n">
         <v>158</v>
       </c>
@@ -6467,9 +6661,11 @@
         <v>430823.2397727065</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>161</v>
+      </c>
       <c r="J154" t="n">
         <v>158</v>
       </c>
@@ -6506,9 +6702,11 @@
         <v>433102.7923727065</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>160</v>
+      </c>
       <c r="J155" t="n">
         <v>158</v>
       </c>
@@ -6545,9 +6743,11 @@
         <v>433102.7923727065</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>161</v>
+      </c>
       <c r="J156" t="n">
         <v>158</v>
       </c>
@@ -6584,9 +6784,11 @@
         <v>429702.8408727064</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>161</v>
+      </c>
       <c r="J157" t="n">
         <v>158</v>
       </c>
@@ -6623,9 +6825,11 @@
         <v>432517.1453727065</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>159</v>
+      </c>
       <c r="J158" t="n">
         <v>158</v>
       </c>
@@ -6662,9 +6866,11 @@
         <v>432513.1453727065</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>161</v>
+      </c>
       <c r="J159" t="n">
         <v>158</v>
       </c>
@@ -6701,9 +6907,11 @@
         <v>439256.4707727064</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>158</v>
+      </c>
       <c r="J160" t="n">
         <v>158</v>
       </c>
@@ -6740,9 +6948,11 @@
         <v>439256.4707727064</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>159</v>
+      </c>
       <c r="J161" t="n">
         <v>158</v>
       </c>
@@ -6779,9 +6989,11 @@
         <v>439256.4707727064</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>159</v>
+      </c>
       <c r="J162" t="n">
         <v>158</v>
       </c>
@@ -6818,9 +7030,11 @@
         <v>436705.4707727064</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>159</v>
+      </c>
       <c r="J163" t="n">
         <v>158</v>
       </c>
@@ -6857,9 +7071,11 @@
         <v>436709.4707727064</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>157</v>
+      </c>
       <c r="J164" t="n">
         <v>158</v>
       </c>
@@ -6896,7 +7112,7 @@
         <v>436558.8345727064</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>159</v>
@@ -6937,7 +7153,7 @@
         <v>430050.8345727064</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>158</v>
@@ -6978,7 +7194,7 @@
         <v>430054.8345727064</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>157</v>
@@ -7019,7 +7235,7 @@
         <v>430054.8345727064</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>159</v>
@@ -7060,7 +7276,7 @@
         <v>430054.8345727064</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>159</v>
@@ -7101,9 +7317,11 @@
         <v>431299.6839727064</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>159</v>
+      </c>
       <c r="J170" t="n">
         <v>158</v>
       </c>
@@ -7140,9 +7358,11 @@
         <v>431295.6839727064</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>160</v>
+      </c>
       <c r="J171" t="n">
         <v>158</v>
       </c>
@@ -7179,9 +7399,11 @@
         <v>431295.6839727064</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>159</v>
+      </c>
       <c r="J172" t="n">
         <v>158</v>
       </c>
@@ -7218,9 +7440,11 @@
         <v>432304.0119727064</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>159</v>
+      </c>
       <c r="J173" t="n">
         <v>158</v>
       </c>
@@ -7257,9 +7481,11 @@
         <v>432296.0119727064</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>160</v>
+      </c>
       <c r="J174" t="n">
         <v>158</v>
       </c>
@@ -7296,9 +7522,11 @@
         <v>432729.0119727064</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>159</v>
+      </c>
       <c r="J175" t="n">
         <v>158</v>
       </c>
@@ -7335,9 +7563,11 @@
         <v>435929.0119727064</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>160</v>
+      </c>
       <c r="J176" t="n">
         <v>158</v>
       </c>
@@ -7530,9 +7760,11 @@
         <v>452825.0890727064</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>164</v>
+      </c>
       <c r="J181" t="n">
         <v>158</v>
       </c>
@@ -8700,9 +8932,11 @@
         <v>477066.2825916412</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>171</v>
+      </c>
       <c r="J211" t="n">
         <v>158</v>
       </c>
@@ -8739,9 +8973,11 @@
         <v>477066.2825916412</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>173</v>
+      </c>
       <c r="J212" t="n">
         <v>158</v>
       </c>
@@ -8778,9 +9014,11 @@
         <v>464660.4328916412</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>173</v>
+      </c>
       <c r="J213" t="n">
         <v>158</v>
       </c>
@@ -8817,9 +9055,11 @@
         <v>464299.8686916412</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>172</v>
+      </c>
       <c r="J214" t="n">
         <v>158</v>
       </c>
@@ -8856,9 +9096,11 @@
         <v>468857.1665916412</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>171</v>
+      </c>
       <c r="J215" t="n">
         <v>158</v>
       </c>
@@ -8895,9 +9137,11 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>172</v>
+      </c>
       <c r="J216" t="n">
         <v>158</v>
       </c>
@@ -8934,9 +9178,11 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>171</v>
+      </c>
       <c r="J217" t="n">
         <v>158</v>
       </c>
@@ -8973,7 +9219,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>171</v>
@@ -9014,7 +9260,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>171</v>
@@ -9055,9 +9301,11 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>171</v>
+      </c>
       <c r="J220" t="n">
         <v>158</v>
       </c>
@@ -9094,9 +9342,11 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>171</v>
+      </c>
       <c r="J221" t="n">
         <v>158</v>
       </c>
@@ -9133,7 +9383,7 @@
         <v>468849.1665916412</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>171</v>
@@ -9174,9 +9424,11 @@
         <v>468699.1665916412</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>171</v>
+      </c>
       <c r="J223" t="n">
         <v>158</v>
       </c>
@@ -9213,9 +9465,11 @@
         <v>468699.1665916412</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>170</v>
+      </c>
       <c r="J224" t="n">
         <v>158</v>
       </c>
@@ -9252,9 +9506,11 @@
         <v>469317.9763916412</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>170</v>
+      </c>
       <c r="J225" t="n">
         <v>158</v>
       </c>
@@ -9291,9 +9547,11 @@
         <v>451435.3265916412</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>171</v>
+      </c>
       <c r="J226" t="n">
         <v>158</v>
       </c>
@@ -9330,9 +9588,11 @@
         <v>443333.6253916412</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>169</v>
+      </c>
       <c r="J227" t="n">
         <v>158</v>
       </c>
@@ -9369,7 +9629,7 @@
         <v>443333.6253916412</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>167</v>
@@ -9410,9 +9670,11 @@
         <v>443333.6253916412</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>167</v>
+      </c>
       <c r="J229" t="n">
         <v>158</v>
       </c>
@@ -9449,9 +9711,11 @@
         <v>443333.6253916412</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>167</v>
+      </c>
       <c r="J230" t="n">
         <v>158</v>
       </c>
@@ -9488,9 +9752,11 @@
         <v>439522.1958916411</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>167</v>
+      </c>
       <c r="J231" t="n">
         <v>158</v>
       </c>
@@ -9527,9 +9793,11 @@
         <v>440261.6736916411</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>164</v>
+      </c>
       <c r="J232" t="n">
         <v>158</v>
       </c>
@@ -9566,9 +9834,11 @@
         <v>436793.4981916411</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>166</v>
+      </c>
       <c r="J233" t="n">
         <v>158</v>
       </c>
@@ -9605,9 +9875,11 @@
         <v>437952.0623916411</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>164</v>
+      </c>
       <c r="J234" t="n">
         <v>158</v>
       </c>
@@ -9644,9 +9916,11 @@
         <v>437952.0623916411</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>166</v>
+      </c>
       <c r="J235" t="n">
         <v>158</v>
       </c>
@@ -9683,9 +9957,11 @@
         <v>437952.0623916411</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>166</v>
+      </c>
       <c r="J236" t="n">
         <v>158</v>
       </c>
@@ -9722,9 +9998,11 @@
         <v>437952.0623916411</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>166</v>
+      </c>
       <c r="J237" t="n">
         <v>158</v>
       </c>
@@ -9761,9 +10039,11 @@
         <v>438530.9097916412</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>166</v>
+      </c>
       <c r="J238" t="n">
         <v>158</v>
       </c>
@@ -9800,9 +10080,11 @@
         <v>438026.9097916412</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>167</v>
+      </c>
       <c r="J239" t="n">
         <v>158</v>
       </c>
@@ -9839,9 +10121,11 @@
         <v>438026.9097916412</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>165</v>
+      </c>
       <c r="J240" t="n">
         <v>158</v>
       </c>
@@ -9878,9 +10162,11 @@
         <v>438026.9097916412</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>165</v>
+      </c>
       <c r="J241" t="n">
         <v>158</v>
       </c>
@@ -9917,9 +10203,11 @@
         <v>437426.4225916412</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>165</v>
+      </c>
       <c r="J242" t="n">
         <v>158</v>
       </c>
@@ -9956,9 +10244,11 @@
         <v>437793.1164916412</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>164</v>
+      </c>
       <c r="J243" t="n">
         <v>158</v>
       </c>
@@ -9995,9 +10285,11 @@
         <v>437793.1164916412</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>167</v>
+      </c>
       <c r="J244" t="n">
         <v>158</v>
       </c>
@@ -10034,9 +10326,11 @@
         <v>437435.1164916412</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>167</v>
+      </c>
       <c r="J245" t="n">
         <v>158</v>
       </c>
@@ -10073,9 +10367,11 @@
         <v>437435.1164916412</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>166</v>
+      </c>
       <c r="J246" t="n">
         <v>158</v>
       </c>
@@ -10112,9 +10408,11 @@
         <v>442722.0368916412</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>166</v>
+      </c>
       <c r="J247" t="n">
         <v>158</v>
       </c>
@@ -10151,9 +10449,11 @@
         <v>442722.0368916412</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>168</v>
+      </c>
       <c r="J248" t="n">
         <v>158</v>
       </c>
@@ -10190,9 +10490,11 @@
         <v>443092.0368916412</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>168</v>
+      </c>
       <c r="J249" t="n">
         <v>158</v>
       </c>
@@ -10229,9 +10531,11 @@
         <v>443084.0368916412</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>169</v>
+      </c>
       <c r="J250" t="n">
         <v>158</v>
       </c>
@@ -10268,9 +10572,11 @@
         <v>447659.8895916412</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>166</v>
+      </c>
       <c r="J251" t="n">
         <v>158</v>
       </c>
@@ -11633,9 +11939,11 @@
         <v>439008.1456916412</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>172</v>
+      </c>
       <c r="J286" t="n">
         <v>158</v>
       </c>
@@ -11672,9 +11980,11 @@
         <v>439008.1456916412</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>170</v>
+      </c>
       <c r="J287" t="n">
         <v>158</v>
       </c>
@@ -11711,9 +12021,11 @@
         <v>439067.6982916412</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>170</v>
+      </c>
       <c r="J288" t="n">
         <v>158</v>
       </c>
@@ -11750,9 +12062,11 @@
         <v>439067.6982916412</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>171</v>
+      </c>
       <c r="J289" t="n">
         <v>158</v>
       </c>
@@ -11789,9 +12103,11 @@
         <v>435978.3697916412</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>171</v>
+      </c>
       <c r="J290" t="n">
         <v>158</v>
       </c>
@@ -11828,9 +12144,11 @@
         <v>435978.3697916412</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>170</v>
+      </c>
       <c r="J291" t="n">
         <v>158</v>
       </c>
@@ -11867,9 +12185,11 @@
         <v>435978.3697916412</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>170</v>
+      </c>
       <c r="J292" t="n">
         <v>158</v>
       </c>
@@ -11906,9 +12226,11 @@
         <v>435978.3697916412</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>170</v>
+      </c>
       <c r="J293" t="n">
         <v>158</v>
       </c>
@@ -11945,9 +12267,11 @@
         <v>435978.3697916412</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>170</v>
+      </c>
       <c r="J294" t="n">
         <v>158</v>
       </c>
@@ -11984,9 +12308,11 @@
         <v>447007.6304916412</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>170</v>
+      </c>
       <c r="J295" t="n">
         <v>158</v>
       </c>
@@ -12023,9 +12349,11 @@
         <v>447007.6304916412</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>171</v>
+      </c>
       <c r="J296" t="n">
         <v>158</v>
       </c>
@@ -12062,9 +12390,11 @@
         <v>441783.6812916412</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>171</v>
+      </c>
       <c r="J297" t="n">
         <v>158</v>
       </c>
@@ -12101,9 +12431,11 @@
         <v>441783.6812916412</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>170</v>
+      </c>
       <c r="J298" t="n">
         <v>158</v>
       </c>
@@ -12140,9 +12472,11 @@
         <v>441783.6812916412</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>170</v>
+      </c>
       <c r="J299" t="n">
         <v>158</v>
       </c>
@@ -12179,9 +12513,11 @@
         <v>441783.6812916412</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>170</v>
+      </c>
       <c r="J300" t="n">
         <v>158</v>
       </c>
@@ -12218,9 +12554,11 @@
         <v>441783.6812916412</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>170</v>
+      </c>
       <c r="J301" t="n">
         <v>158</v>
       </c>
@@ -12257,9 +12595,11 @@
         <v>441783.6812916412</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>170</v>
+      </c>
       <c r="J302" t="n">
         <v>158</v>
       </c>
@@ -12296,9 +12636,11 @@
         <v>441783.6812916412</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>170</v>
+      </c>
       <c r="J303" t="n">
         <v>158</v>
       </c>
@@ -12335,9 +12677,11 @@
         <v>441283.6812916412</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>170</v>
+      </c>
       <c r="J304" t="n">
         <v>158</v>
       </c>
@@ -12374,9 +12718,11 @@
         <v>452002.4527916412</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>169</v>
+      </c>
       <c r="J305" t="n">
         <v>158</v>
       </c>
@@ -12413,9 +12759,11 @@
         <v>451880.2497916412</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>170</v>
+      </c>
       <c r="J306" t="n">
         <v>158</v>
       </c>
@@ -12452,9 +12800,11 @@
         <v>453073.8731916412</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>169</v>
+      </c>
       <c r="J307" t="n">
         <v>158</v>
       </c>
@@ -12491,9 +12841,11 @@
         <v>452286.4365916412</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>171</v>
+      </c>
       <c r="J308" t="n">
         <v>158</v>
       </c>
@@ -12530,9 +12882,11 @@
         <v>452286.4365916412</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>170</v>
+      </c>
       <c r="J309" t="n">
         <v>158</v>
       </c>
@@ -12569,9 +12923,11 @@
         <v>452286.4365916412</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>170</v>
+      </c>
       <c r="J310" t="n">
         <v>158</v>
       </c>
@@ -12608,9 +12964,11 @@
         <v>439958.1356916412</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>170</v>
+      </c>
       <c r="J311" t="n">
         <v>158</v>
       </c>
@@ -12647,9 +13005,11 @@
         <v>437987.0168916412</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>169</v>
+      </c>
       <c r="J312" t="n">
         <v>158</v>
       </c>
@@ -12686,9 +13046,11 @@
         <v>437987.0168916412</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>168</v>
+      </c>
       <c r="J313" t="n">
         <v>158</v>
       </c>
@@ -12725,9 +13087,11 @@
         <v>440206.8255916412</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>168</v>
+      </c>
       <c r="J314" t="n">
         <v>158</v>
       </c>
@@ -12764,9 +13128,11 @@
         <v>440206.8255916412</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>169</v>
+      </c>
       <c r="J315" t="n">
         <v>158</v>
       </c>
@@ -12803,9 +13169,11 @@
         <v>440706.8255916412</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>169</v>
+      </c>
       <c r="J316" t="n">
         <v>158</v>
       </c>
@@ -12881,9 +13249,11 @@
         <v>437415.9370916412</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>170</v>
+      </c>
       <c r="J318" t="n">
         <v>158</v>
       </c>
@@ -12920,9 +13290,11 @@
         <v>437415.9370916412</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>169</v>
+      </c>
       <c r="J319" t="n">
         <v>158</v>
       </c>
@@ -12959,9 +13331,11 @@
         <v>437415.9370916412</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>169</v>
+      </c>
       <c r="J320" t="n">
         <v>158</v>
       </c>
@@ -12998,9 +13372,11 @@
         <v>437415.9370916412</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>169</v>
+      </c>
       <c r="J321" t="n">
         <v>158</v>
       </c>
@@ -13037,9 +13413,11 @@
         <v>437415.9370916412</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>169</v>
+      </c>
       <c r="J322" t="n">
         <v>158</v>
       </c>
@@ -13076,9 +13454,11 @@
         <v>437915.9370916412</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>169</v>
+      </c>
       <c r="J323" t="n">
         <v>158</v>
       </c>
@@ -13661,9 +14041,11 @@
         <v>439087.7184916412</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>169</v>
+      </c>
       <c r="J338" t="n">
         <v>158</v>
       </c>
@@ -15182,9 +15564,11 @@
         <v>582939.8421916412</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>173</v>
+      </c>
       <c r="J377" t="n">
         <v>158</v>
       </c>
@@ -17093,7 +17477,7 @@
         <v>742448.2333079268</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
@@ -17101,15 +17485,13 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L426" t="n">
-        <v>1.216518987341772</v>
-      </c>
-      <c r="M426" t="n">
-        <v>1.012820512820513</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -17134,11 +17516,17 @@
         <v>685109.3940079268</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>158</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17167,11 +17555,17 @@
         <v>676470.1747079268</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>158</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17200,11 +17594,17 @@
         <v>676470.1747079268</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>158</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17236,8 +17636,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>158</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17269,8 +17675,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>158</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17302,8 +17714,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>158</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17335,8 +17753,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>158</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17368,8 +17792,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>158</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17401,8 +17831,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>158</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17434,8 +17870,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>158</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17467,8 +17909,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>158</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17500,8 +17948,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>158</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17533,8 +17987,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>158</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17566,8 +18026,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>158</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17599,8 +18065,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>158</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17632,8 +18104,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>158</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17665,8 +18143,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>158</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17698,8 +18182,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>158</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17731,8 +18221,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>158</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17764,8 +18260,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>158</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17797,8 +18299,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>158</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17830,8 +18338,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>158</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17863,8 +18377,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>158</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17896,8 +18416,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>158</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17929,8 +18455,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>158</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17962,8 +18494,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>158</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17995,8 +18533,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>158</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18028,8 +18572,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>158</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18061,8 +18611,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>158</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18094,8 +18650,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>158</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18127,8 +18689,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>158</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18160,8 +18728,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>158</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18193,8 +18767,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>158</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18226,8 +18806,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>158</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18259,8 +18845,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>158</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18292,8 +18884,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>158</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18325,8 +18923,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>158</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18358,8 +18962,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>158</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18391,8 +19001,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>158</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18424,8 +19040,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>158</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18457,8 +19079,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>158</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18490,8 +19118,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>158</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18523,8 +19157,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>158</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18556,8 +19196,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>158</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18589,8 +19235,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>158</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18622,8 +19274,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>158</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18655,8 +19313,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>158</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18688,8 +19352,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>158</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18721,8 +19391,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>158</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18754,8 +19430,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>158</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18787,8 +19469,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>158</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18820,8 +19508,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>158</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18853,8 +19547,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>158</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18886,8 +19586,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>158</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18919,8 +19625,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>158</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18952,8 +19664,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>158</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18985,8 +19703,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>158</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19018,8 +19742,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>158</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19051,8 +19781,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>158</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19084,8 +19820,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>158</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19117,8 +19859,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>158</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19150,8 +19898,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>158</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19183,8 +19937,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>158</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19216,8 +19976,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>158</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19249,8 +20015,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>158</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19282,8 +20054,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>158</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19315,8 +20093,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>158</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19348,8 +20132,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>158</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19381,8 +20171,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>158</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19414,8 +20210,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>158</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19447,8 +20249,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>158</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19480,8 +20288,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>158</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19513,8 +20327,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>158</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19546,8 +20366,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>158</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19579,8 +20405,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>158</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19612,8 +20444,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>158</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19645,8 +20483,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>158</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19678,8 +20522,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>158</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19711,8 +20561,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>158</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19744,8 +20600,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>158</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19777,8 +20639,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>158</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19810,8 +20678,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>158</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19843,8 +20717,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>158</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19876,8 +20756,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>158</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19909,8 +20795,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>158</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19942,8 +20834,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>158</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19975,8 +20873,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>158</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20008,8 +20912,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>158</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20041,8 +20951,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>158</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20074,8 +20990,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>158</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20107,8 +21029,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>158</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20140,8 +21068,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>158</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20173,8 +21107,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>158</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20206,8 +21146,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>158</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20239,8 +21185,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>158</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20272,8 +21224,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>158</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20305,8 +21263,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>158</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20338,8 +21302,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>158</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20371,8 +21341,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>158</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20404,8 +21380,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>158</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20437,8 +21419,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>158</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20470,8 +21458,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>158</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20503,8 +21497,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>158</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20536,8 +21536,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>158</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20569,8 +21575,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>158</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20602,8 +21614,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>158</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20635,8 +21653,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>158</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20668,8 +21692,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>158</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20701,8 +21731,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>158</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20734,8 +21770,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>158</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20767,8 +21809,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>158</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20800,8 +21848,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>158</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20833,8 +21887,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>158</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20866,8 +21926,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>158</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20899,8 +21965,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>158</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20932,8 +22004,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>158</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20965,8 +22043,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>158</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20998,8 +22082,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>158</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21031,8 +22121,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>158</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21064,8 +22160,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>158</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21097,8 +22199,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>158</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21130,8 +22238,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>158</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21163,8 +22277,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>158</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21196,8 +22316,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>158</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21229,8 +22355,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>158</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21262,8 +22394,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>158</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21295,8 +22433,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>158</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21328,8 +22472,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>158</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21361,8 +22511,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>158</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21394,8 +22550,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>158</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21427,8 +22589,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>158</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21460,8 +22628,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>158</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21493,8 +22667,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>158</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21526,8 +22706,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>158</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21559,8 +22745,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>158</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21592,8 +22784,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>158</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21625,8 +22823,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>158</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21658,8 +22862,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>158</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21691,8 +22901,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>158</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21724,8 +22940,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>158</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21757,8 +22979,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>158</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21790,8 +23018,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>158</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21823,8 +23057,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>158</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21856,8 +23096,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>158</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21889,8 +23135,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>158</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21922,8 +23174,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>158</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21955,8 +23213,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>158</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21988,8 +23252,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>158</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22021,8 +23291,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>158</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22054,8 +23330,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>158</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22087,8 +23369,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>158</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22120,8 +23408,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>158</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22153,8 +23447,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>158</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22186,8 +23486,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>158</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22219,8 +23525,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>158</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22252,8 +23564,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>158</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22285,8 +23603,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>158</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22318,8 +23642,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>158</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22351,8 +23681,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>158</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22384,8 +23720,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>158</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22417,8 +23759,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>158</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22450,8 +23798,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>158</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22483,8 +23837,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>158</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22516,8 +23876,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>158</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22549,8 +23915,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>158</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22582,8 +23954,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>158</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22615,8 +23993,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>158</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22648,8 +24032,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>158</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22681,8 +24071,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>158</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22714,8 +24110,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>158</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22747,8 +24149,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>158</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22780,8 +24188,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>158</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22813,8 +24227,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>158</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22846,8 +24266,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>158</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22879,8 +24305,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>158</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22912,8 +24344,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>158</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22945,8 +24383,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>158</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22978,8 +24422,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>158</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23011,8 +24461,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>158</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23044,8 +24500,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>158</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23077,8 +24539,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>158</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23110,8 +24578,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>158</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23143,8 +24617,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>158</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23176,8 +24656,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>158</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23209,8 +24695,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>158</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23242,8 +24734,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>158</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23275,8 +24773,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>158</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23308,8 +24812,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>158</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23341,8 +24851,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>158</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23374,8 +24890,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>158</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23407,8 +24929,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>158</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23440,8 +24968,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>158</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23473,8 +25007,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>158</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23506,8 +25046,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>158</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23539,8 +25085,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>158</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23572,8 +25124,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>158</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23605,8 +25163,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>158</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23638,8 +25202,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>158</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23671,8 +25241,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>158</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23704,8 +25280,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>158</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23737,8 +25319,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>158</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23770,8 +25358,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>158</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23803,8 +25397,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>158</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23833,11 +25433,17 @@
         <v>1728468.792446803</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>158</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23866,11 +25472,17 @@
         <v>1860629.005157362</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>158</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23899,11 +25511,17 @@
         <v>1860629.005157362</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>158</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23932,15 +25550,23 @@
         <v>1908397.814057362</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>158</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
+        <v>1.248164556962025</v>
+      </c>
+      <c r="M633" t="n">
+        <v>1.012820512820513</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -23965,7 +25591,7 @@
         <v>2023812.400206867</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23998,7 +25624,7 @@
         <v>1986432.625650083</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24031,7 +25657,7 @@
         <v>2057846.813750083</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24064,7 +25690,7 @@
         <v>2057846.813750083</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24097,7 +25723,7 @@
         <v>2040480.338150083</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24130,7 +25756,7 @@
         <v>1999885.136550083</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24163,7 +25789,7 @@
         <v>1949894.618550083</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24196,7 +25822,7 @@
         <v>1951171.219850083</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24229,7 +25855,7 @@
         <v>2001350.108150083</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24262,7 +25888,7 @@
         <v>1965719.872750083</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24295,7 +25921,7 @@
         <v>1940595.259650083</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24328,7 +25954,7 @@
         <v>1940595.259650083</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24361,7 +25987,7 @@
         <v>1904496.375350083</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24394,7 +26020,7 @@
         <v>1948780.101362266</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24427,7 +26053,7 @@
         <v>2021538.180162266</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24460,7 +26086,7 @@
         <v>2017247.864708966</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24493,7 +26119,7 @@
         <v>2001205.396208966</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24526,7 +26152,7 @@
         <v>2001205.396208966</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24559,7 +26185,7 @@
         <v>2001205.396208966</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24592,7 +26218,7 @@
         <v>2080783.006596784</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24625,7 +26251,7 @@
         <v>2080783.006596784</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24658,7 +26284,7 @@
         <v>2156549.692896784</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24691,7 +26317,7 @@
         <v>2156549.692896784</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24724,7 +26350,7 @@
         <v>2156549.692896784</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24757,7 +26383,7 @@
         <v>2120658.065596784</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24988,7 +26614,7 @@
         <v>2120856.614496783</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25120,7 +26746,7 @@
         <v>2134111.524296783</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25186,7 +26812,7 @@
         <v>2142523.373696784</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25219,7 +26845,7 @@
         <v>2142226.189496784</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25252,7 +26878,7 @@
         <v>2141958.637396784</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25285,7 +26911,7 @@
         <v>2097064.798696784</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25318,7 +26944,7 @@
         <v>2097072.295596784</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25351,7 +26977,7 @@
         <v>2091628.005196783</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25384,7 +27010,7 @@
         <v>2091628.005196783</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25417,7 +27043,7 @@
         <v>2031298.613496783</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25450,7 +27076,7 @@
         <v>1967591.349796783</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25483,7 +27109,7 @@
         <v>1967591.349796783</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25516,7 +27142,7 @@
         <v>2008678.328296783</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25549,7 +27175,7 @@
         <v>2008572.195496783</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25582,7 +27208,7 @@
         <v>2008572.195496783</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25615,7 +27241,7 @@
         <v>2014760.498554144</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25648,7 +27274,7 @@
         <v>1995044.474479917</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25681,7 +27307,7 @@
         <v>1995044.474479917</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25714,7 +27340,7 @@
         <v>1977348.105979917</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25747,7 +27373,7 @@
         <v>1982210.087779917</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25813,7 +27439,7 @@
         <v>1974064.641579917</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25912,7 +27538,7 @@
         <v>1959811.136779917</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25945,7 +27571,7 @@
         <v>1959811.136779917</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25978,7 +27604,7 @@
         <v>1890130.233279917</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26011,7 +27637,7 @@
         <v>1884143.218079917</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26044,7 +27670,7 @@
         <v>1880479.036679917</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26077,7 +27703,7 @@
         <v>1887551.360779917</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26110,7 +27736,7 @@
         <v>1882613.192579917</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26143,7 +27769,7 @@
         <v>1888798.825679917</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26176,7 +27802,7 @@
         <v>1880362.686579917</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26209,7 +27835,7 @@
         <v>1885375.686579917</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26308,7 +27934,7 @@
         <v>1894236.361279917</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26341,7 +27967,7 @@
         <v>1899383.302079917</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26374,7 +28000,7 @@
         <v>1888500.090779917</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26407,7 +28033,7 @@
         <v>1887416.342479917</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26440,7 +28066,7 @@
         <v>1910716.169579917</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26473,7 +28099,7 @@
         <v>1912966.169579917</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26506,7 +28132,7 @@
         <v>1912966.169579917</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26770,7 +28396,7 @@
         <v>1928837.906879917</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26803,7 +28429,7 @@
         <v>1928837.906879917</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26836,7 +28462,7 @@
         <v>1928837.906879917</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26902,7 +28528,7 @@
         <v>1928847.693879917</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26935,7 +28561,7 @@
         <v>1931333.432979917</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26968,7 +28594,7 @@
         <v>1931320.432979917</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27001,7 +28627,7 @@
         <v>1958462.413779917</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27034,7 +28660,7 @@
         <v>1958462.413779917</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27067,7 +28693,7 @@
         <v>1958462.413779917</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27100,7 +28726,7 @@
         <v>1958462.413779917</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27133,7 +28759,7 @@
         <v>1958462.413779917</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27166,7 +28792,7 @@
         <v>1958452.413779917</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27199,7 +28825,7 @@
         <v>1964230.887779917</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27232,7 +28858,7 @@
         <v>1977288.290979917</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27298,7 +28924,7 @@
         <v>2041321.099879917</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27331,7 +28957,7 @@
         <v>2037684.537179917</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27364,7 +28990,7 @@
         <v>2040649.316579917</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27397,7 +29023,7 @@
         <v>2040649.316579917</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27430,7 +29056,7 @@
         <v>2046037.912779917</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27463,7 +29089,7 @@
         <v>2038837.968410529</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27496,7 +29122,7 @@
         <v>2029682.055010529</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27661,7 +29287,7 @@
         <v>1980284.37181053</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27694,7 +29320,7 @@
         <v>1980778.82561053</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27727,7 +29353,7 @@
         <v>1965348.79521053</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27760,7 +29386,7 @@
         <v>2003669.60381053</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27793,7 +29419,7 @@
         <v>1995180.623459248</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27826,7 +29452,7 @@
         <v>1994463.554859248</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27859,7 +29485,7 @@
         <v>1994982.018776773</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27892,7 +29518,7 @@
         <v>1983833.807976773</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27925,7 +29551,7 @@
         <v>1983833.807976773</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27958,7 +29584,7 @@
         <v>1943816.749076773</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27991,7 +29617,7 @@
         <v>1944332.212976773</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28024,7 +29650,7 @@
         <v>1860941.870576773</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28057,7 +29683,7 @@
         <v>1862901.087276773</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28090,7 +29716,7 @@
         <v>1862928.087276773</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28123,7 +29749,7 @@
         <v>1854119.139776773</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28156,7 +29782,7 @@
         <v>1865187.466476773</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28189,7 +29815,7 @@
         <v>1854593.729476773</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28222,7 +29848,7 @@
         <v>1858366.729476773</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28255,7 +29881,7 @@
         <v>1858380.668576773</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28288,7 +29914,7 @@
         <v>1853424.454676773</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28354,7 +29980,7 @@
         <v>1836444.804476773</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28387,7 +30013,7 @@
         <v>1836444.804476773</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28420,7 +30046,7 @@
         <v>1805666.571176773</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28453,7 +30079,7 @@
         <v>1805707.650576773</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28486,7 +30112,7 @@
         <v>1778465.680776773</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28519,7 +30145,7 @@
         <v>1778465.680776773</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28552,7 +30178,7 @@
         <v>1780147.430976773</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28585,7 +30211,7 @@
         <v>1783144.864376773</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28618,7 +30244,7 @@
         <v>1783144.864376773</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28651,7 +30277,7 @@
         <v>1783144.864376773</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28684,7 +30310,7 @@
         <v>1758141.777276773</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28717,7 +30343,7 @@
         <v>1761275.169476773</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28750,7 +30376,7 @@
         <v>1761275.169476773</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28827,6 +30453,6 @@
       <c r="M781" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>